--- a/Build/Input/Responses.xlsx
+++ b/Build/Input/Responses.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Projects\FoodHubs\Build\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ta0jrg1\Documents\Projects\FoodHubs\Build\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A9FE5E-011F-4DD9-8AA7-C2CDD12D95BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF540CC6-6CB1-41EC-987A-0C15C38A51A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17460" yWindow="4215" windowWidth="13785" windowHeight="9360" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Food Hubs_June 7, 2021_13.11" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Questions and Types" sheetId="3" r:id="rId3"/>
+    <sheet name="Farm Information" sheetId="4" r:id="rId3"/>
+    <sheet name="Sales" sheetId="5" r:id="rId4"/>
+    <sheet name="Questions and Types" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -690,8 +691,44 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>McKee</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{CBE42F7B-8041-4794-8765-F86FC519DCF3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>See spreadsheet for listing of all 15 producers, total cost/sales from each producer, and percentage of sales</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{3E828518-E3E2-4E33-BA2E-E392907C8B4C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SEE spreadsheets provided for list of all 48 vendors... Interview comment: 5-6 farms would be above $10,000 per year. A lot in the $3,000-$10,000 range.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="578">
   <si>
     <t>HUB</t>
   </si>
@@ -2149,6 +2186,282 @@
   </si>
   <si>
     <t>nonprofit - affiliated</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Lon</t>
+  </si>
+  <si>
+    <t>9535 US Highway 51 N</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Cobden</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>501 Rose Ave</t>
+  </si>
+  <si>
+    <t>New Haven</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>5 Hen Farm</t>
+  </si>
+  <si>
+    <t>1030 Gurley Loop</t>
+  </si>
+  <si>
+    <t>Makanda</t>
+  </si>
+  <si>
+    <t>Pierceton</t>
+  </si>
+  <si>
+    <t>850 Rossville Rd</t>
+  </si>
+  <si>
+    <t>Waukon</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>915 E 200 S</t>
+  </si>
+  <si>
+    <t>LaGrange</t>
+  </si>
+  <si>
+    <t>2912 Manawa Trail Rd</t>
+  </si>
+  <si>
+    <t>Decorah</t>
+  </si>
+  <si>
+    <t>1565 Bethel Church Rd</t>
+  </si>
+  <si>
+    <t>12815 Doty Rd.</t>
+  </si>
+  <si>
+    <t>2741 Hidden Falls Rd</t>
+  </si>
+  <si>
+    <t>Carbondale</t>
+  </si>
+  <si>
+    <t>5220 W Bennington Rd</t>
+  </si>
+  <si>
+    <t>Cedear Falls</t>
+  </si>
+  <si>
+    <t>2060 Camp Cedar Point Ln</t>
+  </si>
+  <si>
+    <t>2862 Locust Rd</t>
+  </si>
+  <si>
+    <t>Related Hub</t>
+  </si>
+  <si>
+    <t>Angie's Honey</t>
+  </si>
+  <si>
+    <t>Baetje Farms</t>
+  </si>
+  <si>
+    <t>Flora Bay Farm</t>
+  </si>
+  <si>
+    <t>Glaciers End</t>
+  </si>
+  <si>
+    <t>Jen's Joe</t>
+  </si>
+  <si>
+    <t>One Circle Eco-Farm</t>
+  </si>
+  <si>
+    <t>River to River Farm</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Tunnel Hill</t>
+  </si>
+  <si>
+    <t>Pomona</t>
+  </si>
+  <si>
+    <t>Johnston City</t>
+  </si>
+  <si>
+    <t>Bloomsdale</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Autumn Ridge Farm</t>
+  </si>
+  <si>
+    <t>DeSoto</t>
+  </si>
+  <si>
+    <t>Heather's Bake Shop and More</t>
+  </si>
+  <si>
+    <t>450 Cates Lane</t>
+  </si>
+  <si>
+    <t>29 2nd St</t>
+  </si>
+  <si>
+    <t>411 E Douglas St.</t>
+  </si>
+  <si>
+    <t>8932 Jackson School Rd</t>
+  </si>
+  <si>
+    <t>48 Hillcrest Dr</t>
+  </si>
+  <si>
+    <t>350 Bay Rd</t>
+  </si>
+  <si>
+    <t>18538 Pittsburg Rd</t>
+  </si>
+  <si>
+    <t>403 Missouri Ave</t>
+  </si>
+  <si>
+    <t>212 S University</t>
+  </si>
+  <si>
+    <t>Lick Creek Pork and Beef</t>
+  </si>
+  <si>
+    <t>75 S Lick Creek Rd</t>
+  </si>
+  <si>
+    <t>Buncombe</t>
+  </si>
+  <si>
+    <t>362 Shagbark Rd</t>
+  </si>
+  <si>
+    <t>Du Quion</t>
+  </si>
+  <si>
+    <t>8975 Hwy 45 N</t>
+  </si>
+  <si>
+    <t>The Flock Farm</t>
+  </si>
+  <si>
+    <t>460 McDuffee Ln</t>
+  </si>
+  <si>
+    <t>Rocky Road Dairy</t>
+  </si>
+  <si>
+    <t>1468 N 100 St</t>
+  </si>
+  <si>
+    <t>Mullberry Grove</t>
+  </si>
+  <si>
+    <t>The Olde Farmhouse</t>
+  </si>
+  <si>
+    <t>The Mushroom Diva</t>
+  </si>
+  <si>
+    <t>Fort Wayne</t>
+  </si>
+  <si>
+    <t>Heritage Poultry</t>
+  </si>
+  <si>
+    <t>Young Urban Homesteaders</t>
+  </si>
+  <si>
+    <t>1325 Lafayette St.</t>
+  </si>
+  <si>
+    <t>North Coast Organics</t>
+  </si>
+  <si>
+    <t>629 E Washington Blvd</t>
+  </si>
+  <si>
+    <t>Turkeyfoot Creek Creamery</t>
+  </si>
+  <si>
+    <t>Wauseon</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>Copper Creek Farms LLC</t>
+  </si>
+  <si>
+    <t>Josh's Jungle</t>
+  </si>
+  <si>
+    <t>Kams café</t>
+  </si>
+  <si>
+    <t>Hoffman Certified Organics, LLC</t>
+  </si>
+  <si>
+    <t>Huntertown</t>
+  </si>
+  <si>
+    <t>Lunar Infusions</t>
+  </si>
+  <si>
+    <t>110 S State St</t>
+  </si>
+  <si>
+    <t>South Whitley</t>
+  </si>
+  <si>
+    <t>Lot Hill Dairy Farm</t>
+  </si>
+  <si>
+    <t>Seymour</t>
+  </si>
+  <si>
+    <t>Amish Aquaponics</t>
+  </si>
+  <si>
+    <t>Woods Farm</t>
   </si>
 </sst>
 </file>
@@ -2725,7 +3038,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2795,6 +3108,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -6491,8 +6807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5C2B09-A9DD-492E-A2D5-3B0AF3402793}">
   <dimension ref="A1:DU8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N19:N20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6501,17 +6817,17 @@
     <col min="2" max="2" width="11.875" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.875" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="6.375" style="30" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.375" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="25" width="6.375" style="30" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="7.375" style="30" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="28.25" style="30" bestFit="1" customWidth="1"/>
-    <col min="30" max="38" width="6.375" style="30" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="7.375" style="30" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="86.25" style="30" bestFit="1" customWidth="1"/>
-    <col min="41" max="48" width="6.375" style="30" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="64.25" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="30" hidden="1" customWidth="1"/>
+    <col min="6" max="14" width="6.375" style="30" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="7.375" style="30" hidden="1" customWidth="1"/>
+    <col min="17" max="25" width="6.375" style="30" hidden="1" customWidth="1"/>
+    <col min="26" max="28" width="7.375" style="30" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="28.25" style="30" hidden="1" customWidth="1"/>
+    <col min="30" max="38" width="6.375" style="30" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="7.375" style="30" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="86.25" style="30" hidden="1" customWidth="1"/>
+    <col min="41" max="48" width="6.375" style="30" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="64.25" style="30" hidden="1" customWidth="1"/>
     <col min="50" max="50" width="6.375" style="30" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="123.5" style="30" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="6.375" style="30" bestFit="1" customWidth="1"/>
@@ -8889,10 +9205,902 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2C82EC-A31B-45FC-B153-BC9CF458FF0C}">
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F2">
+        <v>62920</v>
+      </c>
+      <c r="G2">
+        <v>37.598368299999997</v>
+      </c>
+      <c r="H2">
+        <v>-89.234875400000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>496</v>
+      </c>
+      <c r="D3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F3" s="30">
+        <v>46774</v>
+      </c>
+      <c r="G3">
+        <v>41.081386700000003</v>
+      </c>
+      <c r="H3">
+        <v>-85.023636600000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>499</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>500</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>501</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>495</v>
+      </c>
+      <c r="F5">
+        <v>62958</v>
+      </c>
+      <c r="G5">
+        <v>37.484935700000001</v>
+      </c>
+      <c r="H5">
+        <v>-89.141848199999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>555</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30" t="s">
+        <v>502</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="F6">
+        <v>46562</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>503</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>504</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="F7">
+        <v>52172</v>
+      </c>
+      <c r="G7">
+        <v>43.260177900000002</v>
+      </c>
+      <c r="H7">
+        <v>-91.475571700000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>526</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>495</v>
+      </c>
+      <c r="F8">
+        <v>62906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>506</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="F9">
+        <v>46761</v>
+      </c>
+      <c r="G9">
+        <v>41.612531300000001</v>
+      </c>
+      <c r="H9">
+        <v>-85.408692400000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>508</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>509</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="F10">
+        <v>52101</v>
+      </c>
+      <c r="G10">
+        <v>43.357669000000001</v>
+      </c>
+      <c r="H10">
+        <v>-91.698791999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>494</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>495</v>
+      </c>
+      <c r="F11">
+        <v>62920</v>
+      </c>
+      <c r="G11">
+        <v>37.546531100000003</v>
+      </c>
+      <c r="H11">
+        <v>-89.181623799999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>511</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>497</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="F12">
+        <v>46774</v>
+      </c>
+      <c r="G12">
+        <v>41.1440038</v>
+      </c>
+      <c r="H12">
+        <v>-84.979480499999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>509</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="F13">
+        <v>52101</v>
+      </c>
+      <c r="G13">
+        <v>43.332819999999998</v>
+      </c>
+      <c r="H13">
+        <v>-91.683007900000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>539</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>513</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>495</v>
+      </c>
+      <c r="F14">
+        <v>62901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>514</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>515</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="F15">
+        <v>50613</v>
+      </c>
+      <c r="G15">
+        <v>42.599934699999999</v>
+      </c>
+      <c r="H15">
+        <v>-92.443231900000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>516</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>501</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>495</v>
+      </c>
+      <c r="F16">
+        <v>62958</v>
+      </c>
+      <c r="G16">
+        <v>37.628649899999999</v>
+      </c>
+      <c r="H16">
+        <v>-89.120473200000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>509</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="F17">
+        <v>52101</v>
+      </c>
+      <c r="G17">
+        <v>43.351876900000001</v>
+      </c>
+      <c r="H17">
+        <v>-91.765637699999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>519</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>528</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>495</v>
+      </c>
+      <c r="F18">
+        <v>62975</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>520</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>538</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>530</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>531</v>
+      </c>
+      <c r="F19">
+        <v>63627</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>521</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>540</v>
+      </c>
+      <c r="D20" t="s">
+        <v>513</v>
+      </c>
+      <c r="E20" t="s">
+        <v>495</v>
+      </c>
+      <c r="F20">
+        <v>62903</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>522</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="D21" t="s">
+        <v>529</v>
+      </c>
+      <c r="E21" t="s">
+        <v>495</v>
+      </c>
+      <c r="F21">
+        <v>62951</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>196</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="D22" t="s">
+        <v>513</v>
+      </c>
+      <c r="E22" t="s">
+        <v>495</v>
+      </c>
+      <c r="F22">
+        <v>62901</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>524</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>547</v>
+      </c>
+      <c r="D23" t="s">
+        <v>548</v>
+      </c>
+      <c r="E23" t="s">
+        <v>495</v>
+      </c>
+      <c r="F23">
+        <v>62832</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>196</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>525</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>549</v>
+      </c>
+      <c r="D24" t="s">
+        <v>527</v>
+      </c>
+      <c r="E24" t="s">
+        <v>495</v>
+      </c>
+      <c r="F24">
+        <v>62972</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>532</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>537</v>
+      </c>
+      <c r="D25" t="s">
+        <v>533</v>
+      </c>
+      <c r="E25" t="s">
+        <v>495</v>
+      </c>
+      <c r="F25">
+        <v>62924</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="D26" t="s">
+        <v>213</v>
+      </c>
+      <c r="E26" t="s">
+        <v>495</v>
+      </c>
+      <c r="F26">
+        <v>62918</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="D27" t="s">
+        <v>546</v>
+      </c>
+      <c r="E27" t="s">
+        <v>495</v>
+      </c>
+      <c r="F27">
+        <v>62912</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>196</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>550</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>551</v>
+      </c>
+      <c r="D28" t="s">
+        <v>526</v>
+      </c>
+      <c r="E28" t="s">
+        <v>495</v>
+      </c>
+      <c r="F28">
+        <v>62906</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>552</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>553</v>
+      </c>
+      <c r="D29" t="s">
+        <v>554</v>
+      </c>
+      <c r="E29" t="s">
+        <v>495</v>
+      </c>
+      <c r="F29">
+        <v>62262</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>216</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>556</v>
+      </c>
+      <c r="C30" s="40"/>
+      <c r="D30" t="s">
+        <v>557</v>
+      </c>
+      <c r="E30" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>216</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>558</v>
+      </c>
+      <c r="C31" s="40"/>
+      <c r="D31" t="s">
+        <v>507</v>
+      </c>
+      <c r="E31" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>216</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>559</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>560</v>
+      </c>
+      <c r="D32" t="s">
+        <v>557</v>
+      </c>
+      <c r="E32" t="s">
+        <v>498</v>
+      </c>
+      <c r="F32">
+        <v>46802</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>561</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>562</v>
+      </c>
+      <c r="D33" t="s">
+        <v>557</v>
+      </c>
+      <c r="E33" t="s">
+        <v>498</v>
+      </c>
+      <c r="F33">
+        <v>46802</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>216</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>563</v>
+      </c>
+      <c r="D34" t="s">
+        <v>564</v>
+      </c>
+      <c r="E34" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>216</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>566</v>
+      </c>
+      <c r="D35" t="s">
+        <v>557</v>
+      </c>
+      <c r="E35" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>216</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>567</v>
+      </c>
+      <c r="D36" t="s">
+        <v>557</v>
+      </c>
+      <c r="E36" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>216</v>
+      </c>
+      <c r="B37" s="40" t="s">
+        <v>568</v>
+      </c>
+      <c r="D37" t="s">
+        <v>557</v>
+      </c>
+      <c r="E37" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>569</v>
+      </c>
+      <c r="D38" t="s">
+        <v>570</v>
+      </c>
+      <c r="E38" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>216</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>571</v>
+      </c>
+      <c r="C39" t="s">
+        <v>572</v>
+      </c>
+      <c r="D39" t="s">
+        <v>573</v>
+      </c>
+      <c r="E39" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>216</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>574</v>
+      </c>
+      <c r="D40" t="s">
+        <v>575</v>
+      </c>
+      <c r="E40" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>216</v>
+      </c>
+      <c r="B41" s="40" t="s">
+        <v>576</v>
+      </c>
+      <c r="D41" t="s">
+        <v>497</v>
+      </c>
+      <c r="E41" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>216</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>577</v>
+      </c>
+      <c r="D42" t="s">
+        <v>557</v>
+      </c>
+      <c r="E42" t="s">
+        <v>498</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B18:B27">
+    <sortCondition ref="B18:B27"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E81FDB5-C533-418E-91F7-F17CF1968CE8}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>489</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6CD354-965E-4238-8834-48E382BF860B}">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" workbookViewId="0">
+    <sheetView topLeftCell="A87" workbookViewId="0">
       <selection activeCell="A126" sqref="A126:A131"/>
     </sheetView>
   </sheetViews>

--- a/Build/Input/Responses.xlsx
+++ b/Build/Input/Responses.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ta0jrg1\Documents\Projects\FoodHubs\Build\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Projects\FoodHubs\Build\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97CDA8C-3961-4695-A149-8CF494B3B514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32ADE61B-FDF1-4D22-BA04-5A438F3A4295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15450" yWindow="9180" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions and Types" sheetId="3" r:id="rId1"/>
     <sheet name="Hubs" sheetId="2" r:id="rId2"/>
     <sheet name="Fifth Season" sheetId="7" r:id="rId3"/>
-    <sheet name="Farm Information" sheetId="4" r:id="rId4"/>
+    <sheet name="Farms" sheetId="4" r:id="rId4"/>
     <sheet name="Sales" sheetId="5" r:id="rId5"/>
     <sheet name="Sprout" sheetId="6" r:id="rId6"/>
     <sheet name="Responses" sheetId="1" r:id="rId7"/>
@@ -730,7 +730,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="859">
   <si>
     <t>HUB</t>
   </si>
@@ -1711,12 +1711,6 @@
   </si>
   <si>
     <t>Producer Cooperative</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
   </si>
   <si>
     <t>High</t>
@@ -3996,9 +3990,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4018,6 +4009,9 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -4390,27 +4384,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>209</v>
       </c>
       <c r="D1" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>329</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
@@ -4430,7 +4424,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B3" t="s">
         <v>48</v>
@@ -4450,7 +4444,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B4" t="s">
         <v>49</v>
@@ -4470,7 +4464,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -4490,7 +4484,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B6" t="s">
         <v>51</v>
@@ -4510,7 +4504,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -4530,7 +4524,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -4550,7 +4544,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B9" t="s">
         <v>54</v>
@@ -4570,7 +4564,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -4590,7 +4584,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
@@ -4610,7 +4604,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B12" t="s">
         <v>57</v>
@@ -4630,23 +4624,23 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -4660,7 +4654,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B15" t="s">
         <v>59</v>
@@ -4674,7 +4668,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B16" t="s">
         <v>60</v>
@@ -4688,7 +4682,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B17" t="s">
         <v>61</v>
@@ -4702,7 +4696,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B18" t="s">
         <v>62</v>
@@ -4716,7 +4710,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B19" t="s">
         <v>63</v>
@@ -4730,7 +4724,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -4744,7 +4738,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B21" t="s">
         <v>65</v>
@@ -4758,7 +4752,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B22" t="s">
         <v>66</v>
@@ -4772,7 +4766,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B23" t="s">
         <v>67</v>
@@ -4786,7 +4780,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B24" t="s">
         <v>68</v>
@@ -4800,7 +4794,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B25" t="s">
         <v>69</v>
@@ -4814,166 +4808,166 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B26" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="40" t="s">
-        <v>348</v>
-      </c>
-      <c r="D26" s="40"/>
+      <c r="C26" s="48" t="s">
+        <v>346</v>
+      </c>
+      <c r="D26" s="48"/>
     </row>
     <row r="27" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="C27" s="19" t="s">
         <v>349</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>460</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B28" t="s">
         <v>71</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B29" t="s">
         <v>72</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B30" t="s">
         <v>73</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B31" t="s">
         <v>74</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B32" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B33" t="s">
         <v>76</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B34" t="s">
         <v>77</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B35" t="s">
         <v>78</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B36" t="s">
         <v>79</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B37" t="s">
         <v>80</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B38" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="40" t="s">
-        <v>348</v>
-      </c>
-      <c r="D38" s="40"/>
+      <c r="C38" s="48" t="s">
+        <v>346</v>
+      </c>
+      <c r="D38" s="48"/>
     </row>
     <row r="39" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B39" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>82</v>
@@ -4987,7 +4981,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>83</v>
@@ -5001,7 +4995,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>84</v>
@@ -5015,7 +5009,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>85</v>
@@ -5029,7 +5023,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>86</v>
@@ -5043,7 +5037,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>87</v>
@@ -5057,7 +5051,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>88</v>
@@ -5071,7 +5065,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>89</v>
@@ -5085,7 +5079,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>90</v>
@@ -5099,862 +5093,862 @@
     </row>
     <row r="49" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B49" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D49" s="17"/>
     </row>
     <row r="50" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B50" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D50" s="21"/>
     </row>
     <row r="51" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C51" s="19"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B52" t="s">
         <v>91</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B53" t="s">
         <v>92</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B54" t="s">
         <v>93</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B55" t="s">
         <v>94</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B56" t="s">
         <v>95</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B57" t="s">
         <v>96</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B58" t="s">
         <v>97</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B59" t="s">
         <v>98</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>99</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>100</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>101</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>102</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>103</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>104</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>105</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>106</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>107</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>110</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>111</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="25" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>112</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="25" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>113</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>114</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76" spans="1:3" s="18" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="27" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B77" t="s">
         <v>119</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="27" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B78" t="s">
         <v>120</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="27" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B79" t="s">
         <v>121</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="27" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B80" t="s">
         <v>122</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="27" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B81" t="s">
         <v>123</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B82" t="s">
         <v>124</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="27" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B83" t="s">
         <v>125</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="27" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B84" t="s">
         <v>126</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="27" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B85" t="s">
         <v>127</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="27" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B86" t="s">
         <v>128</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="27" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B87" t="s">
         <v>129</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B88" t="s">
         <v>130</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="27" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B89" t="s">
         <v>131</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="90" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="28" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C90" s="19"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="27" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B91" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="B92" t="s">
+        <v>407</v>
+      </c>
+      <c r="C92" s="17" t="s">
         <v>412</v>
-      </c>
-      <c r="B92" t="s">
-        <v>409</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="27" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B93" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="94" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C94" s="19"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B95" t="s">
         <v>136</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="25" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B96" t="s">
         <v>137</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="25" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B97" t="s">
         <v>138</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="25" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B98" t="s">
         <v>139</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="25" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B99" t="s">
         <v>140</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="25" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B100" t="s">
         <v>141</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="25" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>142</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="25" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>143</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="25" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>144</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="25" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>145</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="25" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>146</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="25" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>147</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="25" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>148</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="25" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>149</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="25" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>150</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="25" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>151</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="25" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>152</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="25" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>153</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="113" spans="1:6" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="25" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B114" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="25" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B115" t="s">
         <v>159</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="25" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B116" t="s">
         <v>160</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="25" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B117" t="s">
         <v>161</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="25" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B118" t="s">
         <v>162</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="25" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B119" t="s">
         <v>163</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="25" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B120" t="s">
         <v>164</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="25" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B121" t="s">
         <v>165</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="25" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B122" t="s">
         <v>166</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="25" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B123" t="s">
         <v>167</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="25" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B124" t="s">
         <v>168</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="125" spans="1:6" s="18" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A125" s="18" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B125" s="29" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C125" s="19" t="s">
         <v>209</v>
       </c>
       <c r="D125" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="E125" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="F125" s="19" t="s">
         <v>329</v>
-      </c>
-      <c r="E125" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="F125" s="19" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="25" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B126" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C126" s="17">
         <v>0</v>
@@ -5971,7 +5965,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="25" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B127" t="s">
         <v>174</v>
@@ -5991,7 +5985,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="25" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B128" t="s">
         <v>175</v>
@@ -6011,7 +6005,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B129" t="s">
         <v>176</v>
@@ -6031,7 +6025,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="25" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B130" t="s">
         <v>177</v>
@@ -6051,7 +6045,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B131" t="s">
         <v>178</v>
@@ -6083,8 +6077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5C2B09-A9DD-492E-A2D5-3B0AF3402793}">
   <dimension ref="A1:DU8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6172,376 +6166,376 @@
         <v>0</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>327</v>
+        <v>486</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>328</v>
+        <v>487</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E1" s="32" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="H1" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="I1" s="33" t="s">
         <v>335</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="J1" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="K1" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="L1" s="33" t="s">
         <v>338</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="M1" s="33" t="s">
         <v>339</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="N1" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="O1" s="33" t="s">
         <v>341</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="P1" s="33" t="s">
         <v>342</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="Q1" s="33" t="s">
         <v>343</v>
       </c>
-      <c r="P1" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q1" s="33" t="s">
-        <v>345</v>
-      </c>
       <c r="R1" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="T1" s="33" t="s">
         <v>462</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="U1" s="33" t="s">
         <v>463</v>
       </c>
-      <c r="T1" s="33" t="s">
+      <c r="V1" s="33" t="s">
         <v>464</v>
       </c>
-      <c r="U1" s="33" t="s">
+      <c r="W1" s="33" t="s">
         <v>465</v>
       </c>
-      <c r="V1" s="33" t="s">
+      <c r="X1" s="33" t="s">
         <v>466</v>
       </c>
-      <c r="W1" s="33" t="s">
+      <c r="Y1" s="33" t="s">
         <v>467</v>
       </c>
-      <c r="X1" s="33" t="s">
+      <c r="Z1" s="33" t="s">
         <v>468</v>
       </c>
-      <c r="Y1" s="33" t="s">
+      <c r="AA1" s="33" t="s">
         <v>469</v>
       </c>
-      <c r="Z1" s="33" t="s">
+      <c r="AB1" s="33" t="s">
         <v>470</v>
       </c>
-      <c r="AA1" s="33" t="s">
+      <c r="AC1" s="33" t="s">
         <v>471</v>
       </c>
-      <c r="AB1" s="33" t="s">
+      <c r="AD1" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="AE1" s="33" t="s">
         <v>472</v>
       </c>
-      <c r="AC1" s="33" t="s">
+      <c r="AF1" s="33" t="s">
         <v>473</v>
       </c>
-      <c r="AD1" s="33" t="s">
-        <v>350</v>
-      </c>
-      <c r="AE1" s="33" t="s">
+      <c r="AG1" s="33" t="s">
         <v>474</v>
       </c>
-      <c r="AF1" s="33" t="s">
+      <c r="AH1" s="33" t="s">
         <v>475</v>
       </c>
-      <c r="AG1" s="33" t="s">
+      <c r="AI1" s="33" t="s">
         <v>476</v>
       </c>
-      <c r="AH1" s="33" t="s">
+      <c r="AJ1" s="33" t="s">
         <v>477</v>
       </c>
-      <c r="AI1" s="33" t="s">
+      <c r="AK1" s="33" t="s">
         <v>478</v>
       </c>
-      <c r="AJ1" s="33" t="s">
+      <c r="AL1" s="33" t="s">
         <v>479</v>
       </c>
-      <c r="AK1" s="33" t="s">
+      <c r="AM1" s="33" t="s">
         <v>480</v>
       </c>
-      <c r="AL1" s="33" t="s">
+      <c r="AN1" s="33" t="s">
         <v>481</v>
       </c>
-      <c r="AM1" s="33" t="s">
-        <v>482</v>
-      </c>
-      <c r="AN1" s="33" t="s">
-        <v>483</v>
-      </c>
       <c r="AO1" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="AP1" s="33" t="s">
         <v>353</v>
       </c>
-      <c r="AP1" s="33" t="s">
+      <c r="AQ1" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="AR1" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="AQ1" s="33" t="s">
+      <c r="AS1" s="33" t="s">
         <v>356</v>
       </c>
-      <c r="AR1" s="33" t="s">
+      <c r="AT1" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="AS1" s="33" t="s">
+      <c r="AU1" s="33" t="s">
         <v>358</v>
       </c>
-      <c r="AT1" s="33" t="s">
+      <c r="AV1" s="33" t="s">
         <v>359</v>
       </c>
-      <c r="AU1" s="33" t="s">
+      <c r="AW1" s="33" t="s">
         <v>360</v>
       </c>
-      <c r="AV1" s="33" t="s">
-        <v>361</v>
-      </c>
-      <c r="AW1" s="33" t="s">
-        <v>362</v>
-      </c>
       <c r="AX1" s="33" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AY1" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="AZ1" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="BA1" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="AZ1" s="33" t="s">
+      <c r="BB1" s="33" t="s">
         <v>367</v>
       </c>
-      <c r="BA1" s="33" t="s">
+      <c r="BC1" s="33" t="s">
         <v>368</v>
       </c>
-      <c r="BB1" s="33" t="s">
+      <c r="BD1" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="BE1" s="33" t="s">
         <v>369</v>
       </c>
-      <c r="BC1" s="33" t="s">
+      <c r="BF1" s="33" t="s">
         <v>370</v>
       </c>
-      <c r="BD1" s="33" t="s">
-        <v>370</v>
-      </c>
-      <c r="BE1" s="33" t="s">
+      <c r="BG1" s="33" t="s">
         <v>371</v>
       </c>
-      <c r="BF1" s="33" t="s">
+      <c r="BH1" s="33" t="s">
         <v>372</v>
       </c>
-      <c r="BG1" s="33" t="s">
+      <c r="BI1" s="33" t="s">
         <v>373</v>
       </c>
-      <c r="BH1" s="33" t="s">
+      <c r="BJ1" s="33" t="s">
         <v>374</v>
       </c>
-      <c r="BI1" s="33" t="s">
+      <c r="BK1" s="33" t="s">
         <v>375</v>
       </c>
-      <c r="BJ1" s="33" t="s">
+      <c r="BL1" s="33" t="s">
         <v>376</v>
       </c>
-      <c r="BK1" s="33" t="s">
+      <c r="BM1" s="33" t="s">
         <v>377</v>
       </c>
-      <c r="BL1" s="33" t="s">
+      <c r="BN1" s="33" t="s">
         <v>378</v>
       </c>
-      <c r="BM1" s="33" t="s">
+      <c r="BO1" s="33" t="s">
         <v>379</v>
       </c>
-      <c r="BN1" s="33" t="s">
+      <c r="BP1" s="33" t="s">
         <v>380</v>
       </c>
-      <c r="BO1" s="33" t="s">
+      <c r="BQ1" s="33" t="s">
         <v>381</v>
       </c>
-      <c r="BP1" s="33" t="s">
+      <c r="BR1" s="33" t="s">
         <v>382</v>
       </c>
-      <c r="BQ1" s="33" t="s">
+      <c r="BS1" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="BR1" s="33" t="s">
+      <c r="BT1" s="33" t="s">
         <v>384</v>
       </c>
-      <c r="BS1" s="33" t="s">
+      <c r="BU1" s="33" t="s">
         <v>385</v>
       </c>
-      <c r="BT1" s="33" t="s">
+      <c r="BV1" s="33" t="s">
         <v>386</v>
       </c>
-      <c r="BU1" s="33" t="s">
-        <v>387</v>
-      </c>
-      <c r="BV1" s="33" t="s">
-        <v>388</v>
-      </c>
       <c r="BW1" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="BX1" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="BY1" s="34" t="s">
         <v>392</v>
       </c>
-      <c r="BX1" s="34" t="s">
+      <c r="BZ1" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="BY1" s="34" t="s">
+      <c r="CA1" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="BZ1" s="34" t="s">
+      <c r="CB1" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="CA1" s="34" t="s">
+      <c r="CC1" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="CB1" s="34" t="s">
+      <c r="CD1" s="34" t="s">
         <v>397</v>
       </c>
-      <c r="CC1" s="34" t="s">
+      <c r="CE1" s="34" t="s">
         <v>398</v>
       </c>
-      <c r="CD1" s="34" t="s">
+      <c r="CF1" s="34" t="s">
         <v>399</v>
       </c>
-      <c r="CE1" s="34" t="s">
+      <c r="CG1" s="34" t="s">
         <v>400</v>
       </c>
-      <c r="CF1" s="34" t="s">
+      <c r="CH1" s="34" t="s">
         <v>401</v>
       </c>
-      <c r="CG1" s="34" t="s">
+      <c r="CI1" s="34" t="s">
         <v>402</v>
       </c>
-      <c r="CH1" s="34" t="s">
-        <v>403</v>
-      </c>
-      <c r="CI1" s="34" t="s">
-        <v>404</v>
-      </c>
       <c r="CJ1" s="34" t="s">
+        <v>409</v>
+      </c>
+      <c r="CK1" s="34" t="s">
+        <v>410</v>
+      </c>
+      <c r="CL1" s="34" t="s">
         <v>411</v>
       </c>
-      <c r="CK1" s="34" t="s">
-        <v>412</v>
-      </c>
-      <c r="CL1" s="34" t="s">
-        <v>413</v>
-      </c>
       <c r="CM1" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="CN1" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="CO1" s="33" t="s">
         <v>416</v>
       </c>
-      <c r="CN1" s="33" t="s">
+      <c r="CP1" s="33" t="s">
         <v>417</v>
       </c>
-      <c r="CO1" s="33" t="s">
+      <c r="CQ1" s="33" t="s">
         <v>418</v>
       </c>
-      <c r="CP1" s="33" t="s">
+      <c r="CR1" s="33" t="s">
         <v>419</v>
       </c>
-      <c r="CQ1" s="33" t="s">
+      <c r="CS1" s="33" t="s">
         <v>420</v>
       </c>
-      <c r="CR1" s="33" t="s">
+      <c r="CT1" s="33" t="s">
         <v>421</v>
       </c>
-      <c r="CS1" s="33" t="s">
+      <c r="CU1" s="33" t="s">
         <v>422</v>
       </c>
-      <c r="CT1" s="33" t="s">
+      <c r="CV1" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="CU1" s="33" t="s">
+      <c r="CW1" s="33" t="s">
         <v>424</v>
       </c>
-      <c r="CV1" s="33" t="s">
+      <c r="CX1" s="33" t="s">
         <v>425</v>
       </c>
-      <c r="CW1" s="33" t="s">
+      <c r="CY1" s="33" t="s">
         <v>426</v>
       </c>
-      <c r="CX1" s="33" t="s">
+      <c r="CZ1" s="33" t="s">
         <v>427</v>
       </c>
-      <c r="CY1" s="33" t="s">
+      <c r="DA1" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="CZ1" s="33" t="s">
+      <c r="DB1" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="DA1" s="33" t="s">
+      <c r="DC1" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="DB1" s="33" t="s">
+      <c r="DD1" s="33" t="s">
         <v>431</v>
       </c>
-      <c r="DC1" s="33" t="s">
-        <v>432</v>
-      </c>
-      <c r="DD1" s="33" t="s">
-        <v>433</v>
-      </c>
       <c r="DE1" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="DF1" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="DG1" s="33" t="s">
         <v>437</v>
       </c>
-      <c r="DF1" s="33" t="s">
+      <c r="DH1" s="33" t="s">
         <v>438</v>
       </c>
-      <c r="DG1" s="33" t="s">
+      <c r="DI1" s="33" t="s">
         <v>439</v>
       </c>
-      <c r="DH1" s="33" t="s">
+      <c r="DJ1" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="DI1" s="33" t="s">
+      <c r="DK1" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="DJ1" s="33" t="s">
+      <c r="DL1" s="33" t="s">
         <v>442</v>
       </c>
-      <c r="DK1" s="33" t="s">
+      <c r="DM1" s="33" t="s">
         <v>443</v>
       </c>
-      <c r="DL1" s="33" t="s">
+      <c r="DN1" s="33" t="s">
         <v>444</v>
       </c>
-      <c r="DM1" s="33" t="s">
+      <c r="DO1" s="33" t="s">
         <v>445</v>
       </c>
-      <c r="DN1" s="33" t="s">
-        <v>446</v>
-      </c>
-      <c r="DO1" s="33" t="s">
+      <c r="DP1" s="33" t="s">
         <v>447</v>
       </c>
-      <c r="DP1" s="33" t="s">
+      <c r="DQ1" s="33" t="s">
+        <v>448</v>
+      </c>
+      <c r="DR1" s="33" t="s">
         <v>449</v>
       </c>
-      <c r="DQ1" s="33" t="s">
+      <c r="DS1" s="33" t="s">
         <v>450</v>
       </c>
-      <c r="DR1" s="33" t="s">
+      <c r="DT1" s="33" t="s">
         <v>451</v>
       </c>
-      <c r="DS1" s="33" t="s">
+      <c r="DU1" s="33" t="s">
         <v>452</v>
-      </c>
-      <c r="DT1" s="33" t="s">
-        <v>453</v>
-      </c>
-      <c r="DU1" s="33" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="2" spans="1:125" x14ac:dyDescent="0.25">
@@ -8242,7 +8236,7 @@
         <v>2016</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F8" s="30">
         <v>1</v>
@@ -8484,7 +8478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F413C6F-0777-4DE2-A7B6-A09BBDD1CE7C}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -8496,53 +8490,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
+        <v>790</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" t="s">
+        <v>820</v>
+      </c>
+      <c r="D1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>791</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" t="s">
+        <v>826</v>
+      </c>
+      <c r="D2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
         <v>792</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" t="s">
-        <v>822</v>
-      </c>
-      <c r="D1" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" t="s">
+        <v>824</v>
+      </c>
+      <c r="D3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
         <v>793</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" t="s">
-        <v>828</v>
-      </c>
-      <c r="D2" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
-        <v>794</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" t="s">
-        <v>826</v>
-      </c>
-      <c r="D3" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
-        <v>795</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>843</v>
+      <c r="B4" s="45" t="s">
+        <v>841</v>
       </c>
       <c r="C4" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E4">
         <v>54667</v>
@@ -8555,17 +8549,17 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
-        <v>796</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>844</v>
+      <c r="A5" s="45" t="s">
+        <v>794</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>842</v>
       </c>
       <c r="C5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D5" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E5">
         <v>54665</v>
@@ -8578,17 +8572,17 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
-        <v>797</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>845</v>
+      <c r="A6" s="45" t="s">
+        <v>795</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>843</v>
       </c>
       <c r="C6" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E6">
         <v>55919</v>
@@ -8601,17 +8595,17 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
-        <v>798</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>846</v>
+      <c r="A7" s="45" t="s">
+        <v>796</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>844</v>
       </c>
       <c r="C7" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E7">
         <v>54639</v>
@@ -8624,41 +8618,41 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="45"/>
       <c r="C8" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D8" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
-        <v>799</v>
-      </c>
-      <c r="B9" s="46"/>
+      <c r="A9" s="45" t="s">
+        <v>797</v>
+      </c>
+      <c r="B9" s="45"/>
       <c r="C9" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D9" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
-        <v>800</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>847</v>
+      <c r="A10" s="46" t="s">
+        <v>798</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>845</v>
       </c>
       <c r="C10" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D10" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E10">
         <v>54661</v>
@@ -8671,17 +8665,17 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
-        <v>821</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>848</v>
+      <c r="A11" s="45" t="s">
+        <v>819</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>846</v>
       </c>
       <c r="C11" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E11">
         <v>54665</v>
@@ -8694,17 +8688,17 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
-        <v>801</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>849</v>
+      <c r="A12" s="45" t="s">
+        <v>799</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>847</v>
       </c>
       <c r="C12" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D12" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E12">
         <v>55971</v>
@@ -8717,17 +8711,17 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
-        <v>802</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>850</v>
+      <c r="A13" s="45" t="s">
+        <v>800</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>848</v>
       </c>
       <c r="C13" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D13" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E13">
         <v>54619</v>
@@ -8740,17 +8734,17 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
-        <v>803</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>851</v>
+      <c r="A14" s="45" t="s">
+        <v>801</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>849</v>
       </c>
       <c r="C14" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D14" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E14">
         <v>54665</v>
@@ -8763,17 +8757,17 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
-        <v>804</v>
-      </c>
-      <c r="B15" s="46" t="s">
-        <v>852</v>
+      <c r="A15" s="45" t="s">
+        <v>802</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>850</v>
       </c>
       <c r="C15" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D15" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E15">
         <v>54634</v>
@@ -8786,15 +8780,15 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
-        <v>805</v>
-      </c>
-      <c r="B16" s="46"/>
+      <c r="A16" s="45" t="s">
+        <v>803</v>
+      </c>
+      <c r="B16" s="45"/>
       <c r="C16" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D16" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F16">
         <v>43.550955220487801</v>
@@ -8804,17 +8798,17 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
-        <v>806</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>855</v>
+      <c r="A17" s="45" t="s">
+        <v>804</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>853</v>
       </c>
       <c r="C17" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D17" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E17">
         <v>54639</v>
@@ -8827,104 +8821,104 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="45" t="s">
+        <v>805</v>
+      </c>
+      <c r="B18" s="45"/>
+      <c r="C18" t="s">
+        <v>820</v>
+      </c>
+      <c r="D18" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="45" t="s">
+        <v>821</v>
+      </c>
+      <c r="B19" s="45"/>
+      <c r="C19" t="s">
+        <v>822</v>
+      </c>
+      <c r="D19" t="s">
+        <v>575</v>
+      </c>
+      <c r="H19" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="45" t="s">
+        <v>806</v>
+      </c>
+      <c r="B20" s="45"/>
+      <c r="C20" t="s">
+        <v>826</v>
+      </c>
+      <c r="D20" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="45" t="s">
         <v>807</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" t="s">
-        <v>822</v>
-      </c>
-      <c r="D18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
+      <c r="B21" s="45"/>
+      <c r="C21" t="s">
+        <v>820</v>
+      </c>
+      <c r="D21" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="45" t="s">
         <v>823</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" t="s">
+      <c r="B22" s="45"/>
+      <c r="C22" t="s">
         <v>824</v>
       </c>
-      <c r="D19" t="s">
-        <v>577</v>
-      </c>
-      <c r="H19" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+      <c r="D22" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="45" t="s">
         <v>808</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" t="s">
-        <v>828</v>
-      </c>
-      <c r="D20" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
+      <c r="B23" s="45"/>
+      <c r="C23" t="s">
+        <v>829</v>
+      </c>
+      <c r="D23" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="45" t="s">
+        <v>825</v>
+      </c>
+      <c r="B24" s="45"/>
+      <c r="C24" t="s">
+        <v>824</v>
+      </c>
+      <c r="D24" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="45" t="s">
         <v>809</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" t="s">
-        <v>822</v>
-      </c>
-      <c r="D21" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="46" t="s">
-        <v>825</v>
-      </c>
-      <c r="B22" s="46"/>
-      <c r="C22" t="s">
-        <v>826</v>
-      </c>
-      <c r="D22" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="46" t="s">
-        <v>810</v>
-      </c>
-      <c r="B23" s="46"/>
-      <c r="C23" t="s">
-        <v>831</v>
-      </c>
-      <c r="D23" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
+      <c r="B25" s="45" t="s">
+        <v>852</v>
+      </c>
+      <c r="C25" t="s">
         <v>827</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" t="s">
-        <v>826</v>
-      </c>
-      <c r="D24" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
-        <v>811</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>854</v>
-      </c>
-      <c r="C25" t="s">
-        <v>829</v>
-      </c>
       <c r="D25" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E25">
         <v>54667</v>
@@ -8937,29 +8931,29 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
-        <v>812</v>
-      </c>
-      <c r="B26" s="46"/>
+      <c r="A26" s="45" t="s">
+        <v>810</v>
+      </c>
+      <c r="B26" s="45"/>
       <c r="C26" t="s">
+        <v>824</v>
+      </c>
+      <c r="D26" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="45" t="s">
+        <v>811</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>854</v>
+      </c>
+      <c r="C27" t="s">
         <v>826</v>
       </c>
-      <c r="D26" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="46" t="s">
-        <v>813</v>
-      </c>
-      <c r="B27" s="46" t="s">
-        <v>856</v>
-      </c>
-      <c r="C27" t="s">
-        <v>828</v>
-      </c>
       <c r="D27" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E27">
         <v>54634</v>
@@ -8972,17 +8966,17 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="46" t="s">
-        <v>814</v>
-      </c>
-      <c r="B28" s="46" t="s">
-        <v>859</v>
+      <c r="A28" s="45" t="s">
+        <v>812</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>857</v>
       </c>
       <c r="C28" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D28" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E28">
         <v>54665</v>
@@ -8995,17 +8989,17 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
-        <v>815</v>
-      </c>
-      <c r="B29" s="46" t="s">
-        <v>860</v>
+      <c r="A29" s="45" t="s">
+        <v>813</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>858</v>
       </c>
       <c r="C29" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D29" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E29">
         <v>54667</v>
@@ -9018,17 +9012,17 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="46" t="s">
-        <v>816</v>
-      </c>
-      <c r="B30" s="46" t="s">
-        <v>857</v>
+      <c r="A30" s="45" t="s">
+        <v>814</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>855</v>
       </c>
       <c r="C30" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D30" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E30">
         <v>54653</v>
@@ -9041,29 +9035,29 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="46" t="s">
-        <v>817</v>
-      </c>
-      <c r="B31" s="46"/>
+      <c r="A31" s="45" t="s">
+        <v>815</v>
+      </c>
+      <c r="B31" s="45"/>
       <c r="C31" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D31" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="46" t="s">
-        <v>818</v>
-      </c>
-      <c r="B32" s="46" t="s">
-        <v>858</v>
+      <c r="A32" s="45" t="s">
+        <v>816</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>856</v>
       </c>
       <c r="C32" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D32" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E32">
         <v>54639</v>
@@ -9076,160 +9070,160 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
-        <v>819</v>
-      </c>
-      <c r="B33" s="46"/>
+      <c r="A33" s="45" t="s">
+        <v>817</v>
+      </c>
+      <c r="B33" s="45"/>
       <c r="C33" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D33" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="46" t="s">
-        <v>820</v>
-      </c>
-      <c r="B34" s="46"/>
+      <c r="A34" s="45" t="s">
+        <v>818</v>
+      </c>
+      <c r="B34" s="45"/>
       <c r="C34" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D34" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="46"/>
-      <c r="B35" s="46"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="46"/>
-      <c r="B36" s="46"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="46"/>
-      <c r="B37" s="46"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="46"/>
-      <c r="B38" s="46"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="46"/>
-      <c r="B39" s="46"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="46"/>
-      <c r="B40" s="46"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="46"/>
-      <c r="B41" s="46"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="46"/>
-      <c r="B42" s="46"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="46"/>
-      <c r="B43" s="46"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="45"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="46"/>
-      <c r="B44" s="46"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
-      <c r="B45" s="46"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="46"/>
-      <c r="B46" s="46"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="45"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="46"/>
-      <c r="B47" s="46"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="45"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="46"/>
-      <c r="B48" s="46"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="46"/>
-      <c r="B49" s="46"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="45"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="46"/>
-      <c r="B50" s="46"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="46"/>
-      <c r="B51" s="46"/>
+      <c r="A51" s="45"/>
+      <c r="B51" s="45"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="46"/>
-      <c r="B52" s="46"/>
+      <c r="A52" s="45"/>
+      <c r="B52" s="45"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="46"/>
-      <c r="B53" s="46"/>
+      <c r="A53" s="45"/>
+      <c r="B53" s="45"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="46"/>
-      <c r="B54" s="46"/>
+      <c r="A54" s="45"/>
+      <c r="B54" s="45"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="46"/>
-      <c r="B55" s="46"/>
+      <c r="A55" s="45"/>
+      <c r="B55" s="45"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="46"/>
-      <c r="B56" s="46"/>
+      <c r="A56" s="45"/>
+      <c r="B56" s="45"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="46"/>
-      <c r="B57" s="46"/>
+      <c r="A57" s="45"/>
+      <c r="B57" s="45"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="46"/>
-      <c r="B58" s="46"/>
+      <c r="A58" s="45"/>
+      <c r="B58" s="45"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="46"/>
-      <c r="B59" s="46"/>
+      <c r="A59" s="45"/>
+      <c r="B59" s="45"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="46"/>
-      <c r="B60" s="46"/>
+      <c r="A60" s="45"/>
+      <c r="B60" s="45"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="46"/>
-      <c r="B61" s="46"/>
+      <c r="A61" s="45"/>
+      <c r="B61" s="45"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="46"/>
-      <c r="B62" s="46"/>
+      <c r="A62" s="45"/>
+      <c r="B62" s="45"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="46"/>
-      <c r="B63" s="46"/>
+      <c r="A63" s="45"/>
+      <c r="B63" s="45"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="46"/>
-      <c r="B64" s="46"/>
+      <c r="A64" s="45"/>
+      <c r="B64" s="45"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="46"/>
-      <c r="B65" s="46"/>
+      <c r="A65" s="45"/>
+      <c r="B65" s="45"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="46"/>
-      <c r="B66" s="46"/>
+      <c r="A66" s="45"/>
+      <c r="B66" s="45"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="46"/>
-      <c r="B67" s="46"/>
+      <c r="A67" s="45"/>
+      <c r="B67" s="45"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A67">
@@ -9246,7 +9240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2C82EC-A31B-45FC-B153-BC9CF458FF0C}">
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
@@ -9264,28 +9258,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>486</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>487</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>491</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>492</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>493</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>488</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -9296,13 +9290,13 @@
         <v>245</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F2">
         <v>50613</v>
@@ -9319,16 +9313,16 @@
         <v>262</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F3">
         <v>52214</v>
@@ -9348,13 +9342,13 @@
         <v>238</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F4">
         <v>52147</v>
@@ -9371,16 +9365,16 @@
         <v>262</v>
       </c>
       <c r="B5" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="C5" t="s">
         <v>584</v>
       </c>
-      <c r="C5" t="s">
-        <v>586</v>
-      </c>
       <c r="D5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F5">
         <v>50153</v>
@@ -9397,16 +9391,16 @@
         <v>262</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C6" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D6" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F6">
         <v>52306</v>
@@ -9423,16 +9417,16 @@
         <v>262</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C7" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D7" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F7">
         <v>52247</v>
@@ -9449,16 +9443,16 @@
         <v>262</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C8" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D8" t="s">
         <v>280</v>
       </c>
       <c r="E8" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F8">
         <v>52240</v>
@@ -9475,16 +9469,16 @@
         <v>262</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C9" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E9" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F9">
         <v>52218</v>
@@ -9498,19 +9492,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>586</v>
+      </c>
+      <c r="C10" t="s">
         <v>587</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>588</v>
-      </c>
-      <c r="C10" t="s">
-        <v>589</v>
       </c>
       <c r="D10" t="s">
         <v>281</v>
       </c>
       <c r="E10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F10">
         <v>52361</v>
@@ -9527,16 +9521,16 @@
         <v>262</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C11" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D11" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F11">
         <v>52247</v>
@@ -9553,16 +9547,16 @@
         <v>262</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C12" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D12" t="s">
         <v>280</v>
       </c>
       <c r="E12" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F12">
         <v>52240</v>
@@ -9579,16 +9573,16 @@
         <v>262</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C13" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D13" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E13" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F13">
         <v>52339</v>
@@ -9605,16 +9599,16 @@
         <v>262</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C14" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D14" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E14" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F14">
         <v>52175</v>
@@ -9631,16 +9625,16 @@
         <v>262</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C15" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D15" t="s">
         <v>280</v>
       </c>
       <c r="E15" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F15">
         <v>52240</v>
@@ -9657,16 +9651,16 @@
         <v>262</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C16" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D16" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E16" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F16">
         <v>52333</v>
@@ -9683,16 +9677,16 @@
         <v>262</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C17" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D17" t="s">
         <v>280</v>
       </c>
       <c r="E17" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F17">
         <v>52240</v>
@@ -9712,13 +9706,13 @@
         <v>240</v>
       </c>
       <c r="C18" s="30" t="s">
+        <v>501</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>502</v>
+      </c>
+      <c r="E18" s="30" t="s">
         <v>503</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>504</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>505</v>
       </c>
       <c r="F18">
         <v>52172</v>
@@ -9735,16 +9729,16 @@
         <v>196</v>
       </c>
       <c r="B19" s="30" t="s">
+        <v>497</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="D19" s="30" t="s">
         <v>499</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>500</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>501</v>
-      </c>
       <c r="E19" s="30" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F19">
         <v>62958</v>
@@ -9764,13 +9758,13 @@
         <v>203</v>
       </c>
       <c r="C20" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D20" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E20" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F20">
         <v>62920</v>
@@ -9787,16 +9781,16 @@
         <v>196</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F21">
         <v>62975</v>
@@ -9813,16 +9807,16 @@
         <v>196</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D22" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E22" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F22">
         <v>62924</v>
@@ -9842,13 +9836,13 @@
         <v>206</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F23">
         <v>62906</v>
@@ -9865,16 +9859,16 @@
         <v>196</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F24">
         <v>63627</v>
@@ -9894,13 +9888,13 @@
         <v>207</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F25">
         <v>62920</v>
@@ -9920,13 +9914,13 @@
         <v>208</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F26">
         <v>62901</v>
@@ -9943,16 +9937,16 @@
         <v>196</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D27" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E27" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F27">
         <v>62903</v>
@@ -9972,13 +9966,13 @@
         <v>210</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F28">
         <v>62958</v>
@@ -9995,16 +9989,16 @@
         <v>196</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D29" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E29" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F29">
         <v>62951</v>
@@ -10021,16 +10015,16 @@
         <v>196</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D30" t="s">
         <v>213</v>
       </c>
       <c r="E30" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F30">
         <v>62918</v>
@@ -10047,16 +10041,16 @@
         <v>196</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D31" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E31" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F31">
         <v>62901</v>
@@ -10073,16 +10067,16 @@
         <v>196</v>
       </c>
       <c r="B32" s="39" t="s">
+        <v>542</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>543</v>
+      </c>
+      <c r="D32" t="s">
         <v>544</v>
       </c>
-      <c r="C32" s="39" t="s">
-        <v>545</v>
-      </c>
-      <c r="D32" t="s">
-        <v>546</v>
-      </c>
       <c r="E32" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F32">
         <v>62912</v>
@@ -10099,16 +10093,16 @@
         <v>196</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D33" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E33" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F33">
         <v>62832</v>
@@ -10125,16 +10119,16 @@
         <v>196</v>
       </c>
       <c r="B34" s="39" t="s">
+        <v>523</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>547</v>
+      </c>
+      <c r="D34" t="s">
         <v>525</v>
       </c>
-      <c r="C34" s="39" t="s">
-        <v>549</v>
-      </c>
-      <c r="D34" t="s">
-        <v>527</v>
-      </c>
       <c r="E34" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F34">
         <v>62972</v>
@@ -10151,16 +10145,16 @@
         <v>196</v>
       </c>
       <c r="B35" s="39" t="s">
+        <v>550</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>551</v>
+      </c>
+      <c r="D35" t="s">
         <v>552</v>
       </c>
-      <c r="C35" s="39" t="s">
-        <v>553</v>
-      </c>
-      <c r="D35" t="s">
-        <v>554</v>
-      </c>
       <c r="E35" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F35">
         <v>62262</v>
@@ -10177,16 +10171,16 @@
         <v>196</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D36" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E36" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F36">
         <v>62906</v>
@@ -10206,13 +10200,13 @@
         <v>242</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F37">
         <v>52101</v>
@@ -10232,13 +10226,13 @@
         <v>244</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F38">
         <v>52101</v>
@@ -10258,13 +10252,13 @@
         <v>247</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F39">
         <v>52101</v>
@@ -10281,16 +10275,16 @@
         <v>285</v>
       </c>
       <c r="B40" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D40" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E40" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F40">
         <v>56401</v>
@@ -10307,16 +10301,16 @@
         <v>285</v>
       </c>
       <c r="B41" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F41">
         <v>56310</v>
@@ -10333,16 +10327,16 @@
         <v>285</v>
       </c>
       <c r="B44" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C44" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D44" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E44" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F44">
         <v>56301</v>
@@ -10359,16 +10353,16 @@
         <v>285</v>
       </c>
       <c r="B45" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C45" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D45" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E45" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F45">
         <v>56479</v>
@@ -10385,16 +10379,16 @@
         <v>285</v>
       </c>
       <c r="B47" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C47" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D47" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E47" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F47">
         <v>56401</v>
@@ -10411,16 +10405,16 @@
         <v>285</v>
       </c>
       <c r="B48" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C48" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D48" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E48" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F48">
         <v>56472</v>
@@ -10437,16 +10431,16 @@
         <v>285</v>
       </c>
       <c r="B49" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C49" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D49" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E49" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F49">
         <v>56469</v>
@@ -10463,16 +10457,16 @@
         <v>285</v>
       </c>
       <c r="B50" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C50" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D50" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E50" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F50">
         <v>55320</v>
@@ -10489,16 +10483,16 @@
         <v>285</v>
       </c>
       <c r="B51" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C51" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D51" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E51" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F51">
         <v>56560</v>
@@ -10515,16 +10509,16 @@
         <v>285</v>
       </c>
       <c r="B53" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C53" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D53" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E53" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F53">
         <v>56374</v>
@@ -10541,16 +10535,16 @@
         <v>285</v>
       </c>
       <c r="B54" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C54" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D54" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E54" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F54">
         <v>56438</v>
@@ -10567,16 +10561,16 @@
         <v>285</v>
       </c>
       <c r="B55" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C55" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D55" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E55" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F55">
         <v>56473</v>
@@ -10593,16 +10587,16 @@
         <v>285</v>
       </c>
       <c r="B56" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C56" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D56" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E56" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F56">
         <v>55371</v>
@@ -10619,16 +10613,16 @@
         <v>285</v>
       </c>
       <c r="B57" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C57" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D57" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E57" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F57">
         <v>56479</v>
@@ -10645,16 +10639,16 @@
         <v>285</v>
       </c>
       <c r="B58" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C58" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D58" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E58" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F58">
         <v>56431</v>
@@ -10671,16 +10665,16 @@
         <v>285</v>
       </c>
       <c r="B59" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C59" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D59" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E59" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F59">
         <v>56472</v>
@@ -10697,16 +10691,16 @@
         <v>285</v>
       </c>
       <c r="B60" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C60" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D60" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E60" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F60">
         <v>55051</v>
@@ -10723,16 +10717,16 @@
         <v>285</v>
       </c>
       <c r="B61" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C61" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D61" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E61" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F61">
         <v>56431</v>
@@ -10749,16 +10743,16 @@
         <v>285</v>
       </c>
       <c r="B62" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C62" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D62" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E62" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F62">
         <v>56401</v>
@@ -10772,19 +10766,19 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B63" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C63" t="s">
+        <v>742</v>
+      </c>
+      <c r="D63" t="s">
+        <v>743</v>
+      </c>
+      <c r="E63" t="s">
         <v>744</v>
-      </c>
-      <c r="D63" t="s">
-        <v>745</v>
-      </c>
-      <c r="E63" t="s">
-        <v>746</v>
       </c>
       <c r="F63">
         <v>49093</v>
@@ -10798,19 +10792,19 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B64" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C64" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D64" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E64" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F64">
         <v>49424</v>
@@ -10824,19 +10818,19 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B65" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C65" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D65" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E65" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F65">
         <v>49071</v>
@@ -10850,19 +10844,19 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B66" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C66" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D66" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E66" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F66">
         <v>49013</v>
@@ -10876,19 +10870,19 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B67" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C67" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D67" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E67" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F67">
         <v>49031</v>
@@ -10902,19 +10896,19 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B68" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C68" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D68" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E68" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F68">
         <v>49073</v>
@@ -10928,19 +10922,19 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B69" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C69" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D69" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E69" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F69">
         <v>49328</v>
@@ -10954,19 +10948,19 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B70" t="s">
+        <v>782</v>
+      </c>
+      <c r="C70" t="s">
+        <v>783</v>
+      </c>
+      <c r="D70" t="s">
         <v>784</v>
       </c>
-      <c r="C70" t="s">
-        <v>785</v>
-      </c>
-      <c r="D70" t="s">
-        <v>786</v>
-      </c>
       <c r="E70" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F70">
         <v>49064</v>
@@ -10980,19 +10974,19 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B72" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C72" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D72" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E72" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F72">
         <v>49033</v>
@@ -11006,19 +11000,19 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B73" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C73" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D73" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E73" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F73">
         <v>49071</v>
@@ -11032,19 +11026,19 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B74" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C74" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D74" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E74" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F74">
         <v>49001</v>
@@ -11058,19 +11052,19 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B76" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C76" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D76" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E76" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F76">
         <v>48813</v>
@@ -11084,19 +11078,19 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B77" t="s">
+        <v>774</v>
+      </c>
+      <c r="C77" s="44" t="s">
+        <v>775</v>
+      </c>
+      <c r="D77" t="s">
         <v>776</v>
       </c>
-      <c r="C77" s="45" t="s">
-        <v>777</v>
-      </c>
-      <c r="D77" t="s">
-        <v>778</v>
-      </c>
       <c r="E77" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F77">
         <v>49014</v>
@@ -11110,19 +11104,19 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B78" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C78" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D78" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E78" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F78">
         <v>49083</v>
@@ -11136,19 +11130,19 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B79" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C79" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D79" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E79" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F79">
         <v>49013</v>
@@ -11162,19 +11156,19 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B80" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C80" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D80" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E80" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F80">
         <v>49013</v>
@@ -11188,19 +11182,19 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B81" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C81" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D81" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E81" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F81">
         <v>49665</v>
@@ -11214,19 +11208,19 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B82" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C82" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D82" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E82" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F82">
         <v>49087</v>
@@ -11243,16 +11237,16 @@
         <v>216</v>
       </c>
       <c r="B83" s="39" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C83" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D83" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E83" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F83">
         <v>46774</v>
@@ -11269,22 +11263,22 @@
         <v>216</v>
       </c>
       <c r="B84" s="39" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C84" s="39" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D84" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E84" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F84">
         <v>46805</v>
       </c>
       <c r="I84" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -11295,13 +11289,13 @@
         <v>225</v>
       </c>
       <c r="C85" s="30" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E85" s="30" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F85">
         <v>46761</v>
@@ -11318,16 +11312,16 @@
         <v>216</v>
       </c>
       <c r="B86" s="39" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C86" s="39" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D86" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E86" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F86">
         <v>46761</v>
@@ -11344,16 +11338,16 @@
         <v>216</v>
       </c>
       <c r="B87" s="39" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C87" s="30" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D87" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E87" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F87">
         <v>46748</v>
@@ -11370,16 +11364,16 @@
         <v>216</v>
       </c>
       <c r="B90" s="39" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C90" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D90" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E90" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F90">
         <v>47274</v>
@@ -11396,16 +11390,16 @@
         <v>216</v>
       </c>
       <c r="B91" s="39" t="s">
+        <v>566</v>
+      </c>
+      <c r="C91" t="s">
+        <v>567</v>
+      </c>
+      <c r="D91" t="s">
         <v>568</v>
       </c>
-      <c r="C91" t="s">
-        <v>569</v>
-      </c>
-      <c r="D91" t="s">
-        <v>570</v>
-      </c>
       <c r="E91" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F91">
         <v>46787</v>
@@ -11422,16 +11416,16 @@
         <v>216</v>
       </c>
       <c r="B92" s="39" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C92" s="39" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D92" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E92" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F92">
         <v>46802</v>
@@ -11451,13 +11445,13 @@
         <v>223</v>
       </c>
       <c r="C93" s="30" t="s">
+        <v>494</v>
+      </c>
+      <c r="D93" t="s">
+        <v>495</v>
+      </c>
+      <c r="E93" t="s">
         <v>496</v>
-      </c>
-      <c r="D93" t="s">
-        <v>497</v>
-      </c>
-      <c r="E93" t="s">
-        <v>498</v>
       </c>
       <c r="F93" s="30">
         <v>46774</v>
@@ -11477,13 +11471,13 @@
         <v>226</v>
       </c>
       <c r="C94" s="30" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E94" s="30" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F94">
         <v>46774</v>
@@ -11500,16 +11494,16 @@
         <v>216</v>
       </c>
       <c r="B96" s="30" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C96" s="30" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D96" s="30" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E96" s="30" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F96">
         <v>46562</v>
@@ -11526,16 +11520,16 @@
         <v>216</v>
       </c>
       <c r="B97" s="39" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C97" s="30" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D97" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E97" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F97">
         <v>46809</v>
@@ -11552,16 +11546,16 @@
         <v>216</v>
       </c>
       <c r="B98" s="39" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C98" s="39" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D98" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E98" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F98">
         <v>46802</v>
@@ -11578,13 +11572,13 @@
         <v>262</v>
       </c>
       <c r="B109" s="39" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D109" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E109" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -11592,13 +11586,13 @@
         <v>262</v>
       </c>
       <c r="B110" s="39" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D110" t="s">
         <v>280</v>
       </c>
       <c r="E110" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F110">
         <v>52240</v>
@@ -11609,13 +11603,13 @@
         <v>285</v>
       </c>
       <c r="B111" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D111" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E111" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -11623,21 +11617,21 @@
         <v>285</v>
       </c>
       <c r="B112" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D112" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E112" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B113" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F113">
         <v>49344</v>
@@ -11645,10 +11639,10 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B114" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="F114">
         <v>49001</v>
@@ -11659,13 +11653,13 @@
         <v>285</v>
       </c>
       <c r="B115" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D115" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E115" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -11673,16 +11667,16 @@
         <v>216</v>
       </c>
       <c r="B116" s="39" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D116" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E116" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I116" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -11690,13 +11684,13 @@
         <v>216</v>
       </c>
       <c r="B117" s="39" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D117" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E117" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -11704,14 +11698,14 @@
         <v>216</v>
       </c>
       <c r="B118" s="39" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C118" s="39"/>
       <c r="D118" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E118" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -11719,13 +11713,13 @@
         <v>285</v>
       </c>
       <c r="B119" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D119" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E119" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -11750,25 +11744,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>486</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>487</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>491</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>492</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>493</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>488</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -11786,610 +11780,610 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.75" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.75" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.75" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9" style="42"/>
-    <col min="6" max="6" width="18.375" style="44" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.375" style="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9" style="44"/>
-    <col min="10" max="16384" width="9" style="42"/>
+    <col min="1" max="1" width="30.75" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.75" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.75" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="41"/>
+    <col min="6" max="6" width="18.375" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.375" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9" style="43"/>
+    <col min="10" max="16384" width="9" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
+        <v>606</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>634</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>655</v>
+      </c>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42" t="s">
+        <v>639</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>607</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>635</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>656</v>
+      </c>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
         <v>608</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>636</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C3" s="40" t="s">
+        <v>631</v>
+      </c>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42" t="s">
+        <v>609</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>609</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>637</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>657</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43" t="s">
+      <c r="F4" s="42"/>
+      <c r="G4" s="42" t="s">
+        <v>612</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
+        <v>610</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>631</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>631</v>
+      </c>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42" t="s">
+        <v>622</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
+        <v>611</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>638</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>658</v>
+      </c>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42" t="s">
+        <v>668</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="40" t="s">
+        <v>612</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>639</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42" t="s">
+        <v>670</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
+        <v>613</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>640</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>660</v>
+      </c>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42" t="s">
+        <v>666</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
+        <v>614</v>
+      </c>
+      <c r="B9" s="40" t="s">
         <v>641</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="C9" s="40" t="s">
+        <v>661</v>
+      </c>
+      <c r="F9" s="41"/>
+      <c r="G9" s="42" t="s">
+        <v>672</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
+        <v>615</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>625</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>662</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="G10" s="42" t="s">
+        <v>616</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
+        <v>616</v>
+      </c>
+      <c r="B11" s="40" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>609</v>
-      </c>
-      <c r="B2" s="41" t="s">
+      <c r="C11" s="40" t="s">
+        <v>661</v>
+      </c>
+      <c r="F11" s="41"/>
+      <c r="G11" s="42" t="s">
+        <v>626</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
+        <v>617</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>643</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>663</v>
+      </c>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42" t="s">
+        <v>658</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
+        <v>618</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>644</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>664</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>646</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
+        <v>619</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>645</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>665</v>
+      </c>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42" t="s">
+        <v>656</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
+        <v>617</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>631</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>666</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>650</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="40" t="s">
+        <v>620</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>646</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>640</v>
+      </c>
+      <c r="F16" s="41"/>
+      <c r="G16" s="42" t="s">
+        <v>628</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="40" t="s">
+        <v>621</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>647</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>667</v>
+      </c>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42" t="s">
+        <v>635</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="40" t="s">
+        <v>622</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>648</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>668</v>
+      </c>
+      <c r="F18" s="41"/>
+      <c r="G18" s="42" t="s">
+        <v>620</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="40" t="s">
+        <v>623</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>631</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>644</v>
+      </c>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42" t="s">
+        <v>643</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="40" t="s">
+        <v>624</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>649</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>669</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>641</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="40" t="s">
+        <v>625</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>629</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>631</v>
+      </c>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42" t="s">
+        <v>619</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="40" t="s">
+        <v>626</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>650</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>670</v>
+      </c>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42" t="s">
+        <v>663</v>
+      </c>
+      <c r="H22" s="42" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="40" t="s">
+        <v>627</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>651</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>671</v>
+      </c>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42" t="s">
+        <v>624</v>
+      </c>
+      <c r="H23" s="42" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="40" t="s">
+        <v>628</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>652</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>672</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>652</v>
+      </c>
+      <c r="H24" s="42" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="40" t="s">
+        <v>629</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>640</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>673</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>657</v>
+      </c>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="40" t="s">
+        <v>630</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>653</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>674</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>660</v>
+      </c>
+      <c r="G26" s="41"/>
+      <c r="H26" s="42" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="40" t="s">
+        <v>631</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>633</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>613</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>662</v>
+      </c>
+      <c r="G27" s="41"/>
+      <c r="H27" s="42" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="40" t="s">
+        <v>632</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>654</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>675</v>
+      </c>
+      <c r="F28" s="42" t="s">
+        <v>669</v>
+      </c>
+      <c r="G28" s="41"/>
+      <c r="H28" s="42" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="40" t="s">
+        <v>633</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>633</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>676</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>674</v>
+      </c>
+      <c r="G29" s="41"/>
+      <c r="H29" s="42" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="F30" s="42" t="s">
+        <v>675</v>
+      </c>
+      <c r="G30" s="41"/>
+      <c r="H30" s="42" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="F31" s="42" t="s">
+        <v>606</v>
+      </c>
+      <c r="H31" s="42" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="F32" s="42" t="s">
+        <v>630</v>
+      </c>
+      <c r="H32" s="42" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="F33" s="42" t="s">
+        <v>632</v>
+      </c>
+      <c r="H33" s="42" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="F34" s="42" t="s">
         <v>637</v>
       </c>
-      <c r="C2" s="41" t="s">
-        <v>658</v>
-      </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
-        <v>610</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>638</v>
-      </c>
-      <c r="C3" s="41" t="s">
+      <c r="H34" s="42" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="F35" s="42" t="s">
+        <v>645</v>
+      </c>
+      <c r="H35" s="42" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="36" spans="6:8" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="F36" s="42" t="s">
+        <v>648</v>
+      </c>
+      <c r="H36" s="42" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="37" spans="6:8" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="F37" s="42" t="s">
+        <v>649</v>
+      </c>
+      <c r="H37" s="42" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="38" spans="6:8" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="F38" s="42" t="s">
+        <v>653</v>
+      </c>
+      <c r="H38" s="42" t="s">
         <v>633</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43" t="s">
-        <v>611</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
-        <v>611</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>639</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>659</v>
-      </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43" t="s">
-        <v>614</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
-        <v>612</v>
-      </c>
-      <c r="B5" s="41" t="s">
+    </row>
+    <row r="39" spans="6:8" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="F39" s="42" t="s">
+        <v>654</v>
+      </c>
+      <c r="H39" s="42" t="s">
         <v>633</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>633</v>
-      </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43" t="s">
-        <v>624</v>
-      </c>
-      <c r="H5" s="43" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
-        <v>613</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>640</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>660</v>
-      </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43" t="s">
-        <v>670</v>
-      </c>
-      <c r="H6" s="41" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
-        <v>614</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>641</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>661</v>
-      </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43" t="s">
-        <v>672</v>
-      </c>
-      <c r="H7" s="43" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
-        <v>615</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>642</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>662</v>
-      </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43" t="s">
-        <v>668</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
-        <v>616</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>643</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>663</v>
-      </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43" t="s">
-        <v>674</v>
-      </c>
-      <c r="H9" s="43" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
-        <v>617</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>664</v>
-      </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="43" t="s">
-        <v>618</v>
-      </c>
-      <c r="H10" s="43" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
-        <v>618</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>644</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>663</v>
-      </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43" t="s">
-        <v>628</v>
-      </c>
-      <c r="H11" s="43" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
-        <v>619</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>645</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>665</v>
-      </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="43" t="s">
-        <v>660</v>
-      </c>
-      <c r="H12" s="43" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
-        <v>620</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>646</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>666</v>
-      </c>
-      <c r="G13" s="43" t="s">
-        <v>648</v>
-      </c>
-      <c r="H13" s="43" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
-        <v>621</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>647</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>667</v>
-      </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43" t="s">
-        <v>658</v>
-      </c>
-      <c r="H14" s="41" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
-        <v>619</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>633</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>668</v>
-      </c>
-      <c r="G15" s="43" t="s">
-        <v>652</v>
-      </c>
-      <c r="H15" s="43" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
-        <v>622</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>648</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>642</v>
-      </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="43" t="s">
-        <v>630</v>
-      </c>
-      <c r="H16" s="43" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
-        <v>623</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>649</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>669</v>
-      </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43" t="s">
-        <v>637</v>
-      </c>
-      <c r="H17" s="43" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
-        <v>624</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>650</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>670</v>
-      </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="43" t="s">
-        <v>622</v>
-      </c>
-      <c r="H18" s="43" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
-        <v>625</v>
-      </c>
-      <c r="B19" s="41" t="s">
-        <v>633</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>646</v>
-      </c>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43" t="s">
-        <v>645</v>
-      </c>
-      <c r="H19" s="43" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
-        <v>626</v>
-      </c>
-      <c r="B20" s="41" t="s">
-        <v>651</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>671</v>
-      </c>
-      <c r="G20" s="43" t="s">
-        <v>643</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="B21" s="41" t="s">
-        <v>631</v>
-      </c>
-      <c r="C21" s="41" t="s">
-        <v>633</v>
-      </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43" t="s">
-        <v>621</v>
-      </c>
-      <c r="H21" s="43" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
-        <v>628</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>652</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>672</v>
-      </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43" t="s">
-        <v>665</v>
-      </c>
-      <c r="H22" s="43" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
-        <v>629</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>653</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>673</v>
-      </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="43" t="s">
-        <v>626</v>
-      </c>
-      <c r="H23" s="43" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
-        <v>630</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>654</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>674</v>
-      </c>
-      <c r="G24" s="43" t="s">
-        <v>654</v>
-      </c>
-      <c r="H24" s="43" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
-        <v>631</v>
-      </c>
-      <c r="B25" s="41" t="s">
-        <v>642</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>675</v>
-      </c>
-      <c r="F25" s="43" t="s">
-        <v>659</v>
-      </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="43" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="s">
-        <v>632</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>655</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>676</v>
-      </c>
-      <c r="F26" s="43" t="s">
-        <v>662</v>
-      </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="43" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
-        <v>633</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>635</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>615</v>
-      </c>
-      <c r="F27" s="43" t="s">
-        <v>664</v>
-      </c>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
-        <v>634</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>656</v>
-      </c>
-      <c r="C28" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="F28" s="43" t="s">
-        <v>671</v>
-      </c>
-      <c r="G28" s="42"/>
-      <c r="H28" s="43" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="41" t="s">
-        <v>635</v>
-      </c>
-      <c r="B29" s="41" t="s">
-        <v>635</v>
-      </c>
-      <c r="C29" s="41" t="s">
-        <v>678</v>
-      </c>
-      <c r="F29" s="43" t="s">
-        <v>676</v>
-      </c>
-      <c r="G29" s="42"/>
-      <c r="H29" s="43" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="F30" s="43" t="s">
-        <v>677</v>
-      </c>
-      <c r="G30" s="42"/>
-      <c r="H30" s="43" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="F31" s="43" t="s">
-        <v>608</v>
-      </c>
-      <c r="H31" s="43" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="F32" s="43" t="s">
-        <v>632</v>
-      </c>
-      <c r="H32" s="43" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="33" spans="6:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="F33" s="43" t="s">
-        <v>634</v>
-      </c>
-      <c r="H33" s="43" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="34" spans="6:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="F34" s="43" t="s">
-        <v>639</v>
-      </c>
-      <c r="H34" s="43" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="35" spans="6:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="F35" s="43" t="s">
-        <v>647</v>
-      </c>
-      <c r="H35" s="43" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="36" spans="6:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="F36" s="43" t="s">
-        <v>650</v>
-      </c>
-      <c r="H36" s="43" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="37" spans="6:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="F37" s="43" t="s">
-        <v>651</v>
-      </c>
-      <c r="H37" s="43" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="38" spans="6:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="F38" s="43" t="s">
-        <v>655</v>
-      </c>
-      <c r="H38" s="43" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="39" spans="6:8" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="F39" s="43" t="s">
-        <v>656</v>
-      </c>
-      <c r="H39" s="43" t="s">
-        <v>635</v>
       </c>
     </row>
   </sheetData>

--- a/Build/Input/Responses.xlsx
+++ b/Build/Input/Responses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Projects\FoodHubs\Build\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32ADE61B-FDF1-4D22-BA04-5A438F3A4295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EB4777-09F0-4C99-980F-09CAD1C22BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15825" yWindow="6075" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions and Types" sheetId="3" r:id="rId1"/>
@@ -730,7 +730,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="865">
   <si>
     <t>HUB</t>
   </si>
@@ -3102,9 +3102,6 @@
     <t>11402 Indianapolis Rd</t>
   </si>
   <si>
-    <t>Aden Slabaugh</t>
-  </si>
-  <si>
     <t>Back Ridge Farm</t>
   </si>
   <si>
@@ -3307,6 +3304,27 @@
   </si>
   <si>
     <t>S2695 County Road S</t>
+  </si>
+  <si>
+    <t>Back Fourty Farm</t>
+  </si>
+  <si>
+    <t>S3405 Runge Lane</t>
+  </si>
+  <si>
+    <t>S371 County Road D</t>
+  </si>
+  <si>
+    <t>43299 Patton Road</t>
+  </si>
+  <si>
+    <t>E10931 Cary Road</t>
+  </si>
+  <si>
+    <t>27999 Newbury Rd</t>
+  </si>
+  <si>
+    <t>S2064 Davidson Ln</t>
   </si>
 </sst>
 </file>
@@ -3316,7 +3334,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3545,6 +3563,11 @@
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="64"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="38">
@@ -3919,7 +3942,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4012,6 +4035,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -6077,7 +6103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5C2B09-A9DD-492E-A2D5-3B0AF3402793}">
   <dimension ref="A1:DU8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -8478,8 +8504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F413C6F-0777-4DE2-A7B6-A09BBDD1CE7C}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8487,143 +8513,140 @@
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="D1" t="s">
         <v>575</v>
       </c>
+      <c r="E1">
+        <v>54619</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
-        <v>791</v>
-      </c>
-      <c r="B2" s="45"/>
+        <v>799</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>847</v>
+      </c>
       <c r="C2" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D2" t="s">
         <v>575</v>
       </c>
+      <c r="E2">
+        <v>54619</v>
+      </c>
+      <c r="F2">
+        <v>43.682318585787499</v>
+      </c>
+      <c r="G2">
+        <v>-90.7144715157728</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
-        <v>792</v>
-      </c>
-      <c r="B3" s="45"/>
+        <v>822</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>860</v>
+      </c>
       <c r="C3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D3" t="s">
         <v>575</v>
       </c>
+      <c r="E3">
+        <v>54619</v>
+      </c>
+      <c r="F3">
+        <v>43.716765294549297</v>
+      </c>
+      <c r="G3">
+        <v>-90.732799842422395</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
-        <v>793</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>841</v>
+        <v>824</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>862</v>
       </c>
       <c r="C4" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="D4" t="s">
         <v>575</v>
       </c>
       <c r="E4">
-        <v>54667</v>
-      </c>
-      <c r="F4">
-        <v>43.651706684702397</v>
-      </c>
-      <c r="G4">
-        <v>-90.7873222388708</v>
+        <v>54619</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
-        <v>794</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>842</v>
+        <v>809</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>863</v>
       </c>
       <c r="C5" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="D5" t="s">
         <v>575</v>
       </c>
       <c r="E5">
-        <v>54665</v>
-      </c>
-      <c r="F5">
-        <v>43.5931139579587</v>
-      </c>
-      <c r="G5">
-        <v>-91.063359115214993</v>
+        <v>54619</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>843</v>
+        <v>864</v>
       </c>
       <c r="C6" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D6" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E6">
-        <v>55919</v>
-      </c>
-      <c r="F6">
-        <v>43.8146995878366</v>
-      </c>
-      <c r="G6">
-        <v>-91.411921133518703</v>
+        <v>54621</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
-        <v>796</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>844</v>
-      </c>
+        <v>816</v>
+      </c>
+      <c r="B7" s="45"/>
       <c r="C7" t="s">
-        <v>829</v>
+        <v>838</v>
       </c>
       <c r="D7" t="s">
         <v>575</v>
       </c>
-      <c r="E7">
-        <v>54639</v>
-      </c>
-      <c r="F7">
-        <v>43.535206981182299</v>
-      </c>
-      <c r="G7">
-        <v>-90.527725456818402</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
-        <v>225</v>
+        <v>817</v>
       </c>
       <c r="B8" s="45"/>
       <c r="C8" t="s">
-        <v>827</v>
+        <v>839</v>
       </c>
       <c r="D8" t="s">
         <v>575</v>
@@ -8631,193 +8654,176 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="B9" s="45"/>
       <c r="C9" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="D9" t="s">
-        <v>575</v>
+        <v>834</v>
+      </c>
+      <c r="F9">
+        <v>43.550955220487801</v>
+      </c>
+      <c r="G9">
+        <v>-90.645963801789406</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
-        <v>798</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>845</v>
+      <c r="A10" s="45" t="s">
+        <v>814</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>861</v>
       </c>
       <c r="C10" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="D10" t="s">
         <v>575</v>
       </c>
       <c r="E10">
-        <v>54661</v>
-      </c>
-      <c r="F10">
-        <v>44.071978320670702</v>
-      </c>
-      <c r="G10">
-        <v>-91.492507679536402</v>
+        <v>54631</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
-        <v>819</v>
+        <v>801</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="C11" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="D11" t="s">
         <v>575</v>
       </c>
       <c r="E11">
-        <v>54665</v>
+        <v>54634</v>
       </c>
       <c r="F11">
-        <v>43.5571197807609</v>
+        <v>43.700158271273096</v>
       </c>
       <c r="G11">
-        <v>-90.885507210233101</v>
+        <v>-90.866614167339904</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="C12" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="D12" t="s">
         <v>579</v>
       </c>
       <c r="E12">
-        <v>55971</v>
+        <v>55919</v>
       </c>
       <c r="F12">
-        <v>43.804854043692501</v>
+        <v>43.8146995878366</v>
       </c>
       <c r="G12">
-        <v>-91.790798900428001</v>
+        <v>-91.411921133518703</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="C13" t="s">
-        <v>824</v>
+        <v>835</v>
       </c>
       <c r="D13" t="s">
-        <v>575</v>
+        <v>834</v>
       </c>
       <c r="E13">
-        <v>54619</v>
+        <v>54639</v>
       </c>
       <c r="F13">
-        <v>43.682318585787499</v>
+        <v>43.6213924151726</v>
       </c>
       <c r="G13">
-        <v>-90.7144715157728</v>
+        <v>-90.753379817131005</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="C14" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="D14" t="s">
         <v>575</v>
       </c>
       <c r="E14">
-        <v>54665</v>
+        <v>54639</v>
       </c>
       <c r="F14">
-        <v>43.600975764912803</v>
+        <v>43.535206981182299</v>
       </c>
       <c r="G14">
-        <v>-91.010983288787202</v>
+        <v>-90.527725456818402</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
-        <v>802</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>850</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="B15" s="45"/>
       <c r="C15" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="D15" t="s">
         <v>575</v>
       </c>
-      <c r="E15">
-        <v>54634</v>
-      </c>
-      <c r="F15">
-        <v>43.700158271273096</v>
-      </c>
-      <c r="G15">
-        <v>-90.866614167339904</v>
-      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
-        <v>803</v>
-      </c>
-      <c r="B16" s="45"/>
+        <v>815</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>855</v>
+      </c>
       <c r="C16" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="D16" t="s">
-        <v>835</v>
+        <v>575</v>
+      </c>
+      <c r="E16">
+        <v>54639</v>
       </c>
       <c r="F16">
-        <v>43.550955220487801</v>
+        <v>43.6213924151726</v>
       </c>
       <c r="G16">
-        <v>-90.645963801789406</v>
+        <v>-90.753379817131005</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
-        <v>804</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>853</v>
-      </c>
+        <v>790</v>
+      </c>
+      <c r="B17" s="45"/>
       <c r="C17" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="D17" t="s">
-        <v>835</v>
-      </c>
-      <c r="E17">
-        <v>54639</v>
-      </c>
-      <c r="F17">
-        <v>43.6213924151726</v>
-      </c>
-      <c r="G17">
-        <v>-90.753379817131005</v>
+        <v>575</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -8826,7 +8832,7 @@
       </c>
       <c r="B18" s="45"/>
       <c r="C18" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="D18" t="s">
         <v>575</v>
@@ -8834,318 +8840,384 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
-        <v>821</v>
-      </c>
-      <c r="B19" s="45"/>
+        <v>810</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>853</v>
+      </c>
       <c r="C19" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="D19" t="s">
-        <v>575</v>
-      </c>
-      <c r="H19" t="s">
-        <v>851</v>
+        <v>834</v>
+      </c>
+      <c r="E19">
+        <v>54634</v>
+      </c>
+      <c r="F19">
+        <v>43.676372311057797</v>
+      </c>
+      <c r="G19">
+        <v>-90.474177384592394</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
-        <v>806</v>
+        <v>820</v>
       </c>
       <c r="B20" s="45"/>
       <c r="C20" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="D20" t="s">
         <v>575</v>
       </c>
+      <c r="H20" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
-        <v>807</v>
-      </c>
-      <c r="B21" s="45"/>
+        <v>813</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>854</v>
+      </c>
       <c r="C21" t="s">
-        <v>820</v>
+        <v>836</v>
       </c>
       <c r="D21" t="s">
-        <v>575</v>
+        <v>834</v>
+      </c>
+      <c r="E21">
+        <v>54653</v>
+      </c>
+      <c r="F21">
+        <v>43.797209431220999</v>
+      </c>
+      <c r="G21">
+        <v>-90.937140756290802</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="45" t="s">
-        <v>823</v>
-      </c>
-      <c r="B22" s="45"/>
+        <v>798</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>846</v>
+      </c>
       <c r="C22" t="s">
-        <v>824</v>
+        <v>831</v>
       </c>
       <c r="D22" t="s">
-        <v>575</v>
+        <v>579</v>
+      </c>
+      <c r="E22">
+        <v>55971</v>
+      </c>
+      <c r="F22">
+        <v>43.804854043692501</v>
+      </c>
+      <c r="G22">
+        <v>-91.790798900428001</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
-        <v>808</v>
-      </c>
-      <c r="B23" s="45"/>
+      <c r="A23" s="46" t="s">
+        <v>797</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>844</v>
+      </c>
       <c r="C23" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D23" t="s">
         <v>575</v>
       </c>
+      <c r="E23">
+        <v>54661</v>
+      </c>
+      <c r="F23">
+        <v>44.071978320670702</v>
+      </c>
+      <c r="G23">
+        <v>-91.492507679536402</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
-        <v>825</v>
-      </c>
-      <c r="B24" s="45"/>
+        <v>858</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>859</v>
+      </c>
       <c r="C24" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="D24" t="s">
         <v>575</v>
       </c>
+      <c r="E24">
+        <v>54665</v>
+      </c>
+      <c r="F24">
+        <v>43.609138104349</v>
+      </c>
+      <c r="G24">
+        <v>-91.033610573639905</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
-        <v>809</v>
+        <v>793</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>852</v>
+        <v>841</v>
       </c>
       <c r="C25" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="D25" t="s">
         <v>575</v>
       </c>
       <c r="E25">
-        <v>54667</v>
+        <v>54665</v>
       </c>
       <c r="F25">
-        <v>43.651945072692001</v>
+        <v>43.5931139579587</v>
       </c>
       <c r="G25">
-        <v>-90.762646500432098</v>
+        <v>-91.063359115214993</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
-        <v>810</v>
-      </c>
-      <c r="B26" s="45"/>
+        <v>818</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>845</v>
+      </c>
       <c r="C26" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="D26" t="s">
         <v>575</v>
       </c>
+      <c r="E26">
+        <v>54665</v>
+      </c>
+      <c r="F26">
+        <v>43.5571197807609</v>
+      </c>
+      <c r="G26">
+        <v>-90.885507210233101</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C27" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="D27" t="s">
-        <v>835</v>
+        <v>575</v>
       </c>
       <c r="E27">
-        <v>54634</v>
+        <v>54665</v>
       </c>
       <c r="F27">
-        <v>43.676372311057797</v>
+        <v>43.600975764912803</v>
       </c>
       <c r="G27">
-        <v>-90.474177384592394</v>
+        <v>-91.010983288787202</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="45" t="s">
-        <v>812</v>
-      </c>
-      <c r="B28" s="45" t="s">
-        <v>857</v>
-      </c>
+        <v>804</v>
+      </c>
+      <c r="B28" s="45"/>
       <c r="C28" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D28" t="s">
         <v>575</v>
       </c>
-      <c r="E28">
-        <v>54665</v>
-      </c>
-      <c r="F28">
-        <v>43.609169177707699</v>
-      </c>
-      <c r="G28">
-        <v>-91.034157744116399</v>
-      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
-        <v>813</v>
-      </c>
-      <c r="B29" s="45" t="s">
-        <v>858</v>
-      </c>
+        <v>806</v>
+      </c>
+      <c r="B29" s="45"/>
       <c r="C29" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="D29" t="s">
         <v>575</v>
       </c>
-      <c r="E29">
-        <v>54667</v>
-      </c>
-      <c r="F29">
-        <v>43.626354569392603</v>
-      </c>
-      <c r="G29">
-        <v>-90.777681801787594</v>
-      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="45" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C30" t="s">
-        <v>837</v>
+        <v>819</v>
       </c>
       <c r="D30" t="s">
-        <v>835</v>
+        <v>575</v>
       </c>
       <c r="E30">
-        <v>54653</v>
+        <v>54665</v>
       </c>
       <c r="F30">
-        <v>43.797209431220999</v>
+        <v>43.609169177707699</v>
       </c>
       <c r="G30">
-        <v>-90.937140756290802</v>
+        <v>-91.034157744116399</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
-        <v>815</v>
-      </c>
-      <c r="B31" s="45"/>
+        <v>792</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>840</v>
+      </c>
       <c r="C31" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
       <c r="D31" t="s">
         <v>575</v>
       </c>
+      <c r="E31">
+        <v>54667</v>
+      </c>
+      <c r="F31">
+        <v>43.651706684702397</v>
+      </c>
+      <c r="G31">
+        <v>-90.7873222388708</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
-        <v>816</v>
-      </c>
-      <c r="B32" s="45" t="s">
-        <v>856</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B32" s="45"/>
       <c r="C32" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D32" t="s">
         <v>575</v>
       </c>
-      <c r="E32">
-        <v>54639</v>
-      </c>
-      <c r="F32">
-        <v>43.6213924151726</v>
-      </c>
-      <c r="G32">
-        <v>-90.753379817131005</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="45" t="s">
-        <v>817</v>
-      </c>
-      <c r="B33" s="45"/>
+        <v>808</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>851</v>
+      </c>
       <c r="C33" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
       <c r="D33" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>54667</v>
+      </c>
+      <c r="F33">
+        <v>43.651945072692001</v>
+      </c>
+      <c r="G33">
+        <v>-90.762646500432098</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="45" t="s">
-        <v>818</v>
-      </c>
-      <c r="B34" s="45"/>
+        <v>812</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>857</v>
+      </c>
       <c r="C34" t="s">
-        <v>840</v>
+        <v>826</v>
       </c>
       <c r="D34" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>54667</v>
+      </c>
+      <c r="F34">
+        <v>43.626354569392603</v>
+      </c>
+      <c r="G34">
+        <v>-90.777681801787594</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
       <c r="B35" s="45"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
       <c r="B36" s="45"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
       <c r="B37" s="45"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
       <c r="B38" s="45"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="45"/>
       <c r="B39" s="45"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="45"/>
       <c r="B40" s="45"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="45"/>
       <c r="B41" s="45"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="45"/>
       <c r="B42" s="45"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="45"/>
       <c r="B43" s="45"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="45"/>
       <c r="B44" s="45"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="45"/>
       <c r="B45" s="45"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="45"/>
       <c r="B46" s="45"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="45"/>
       <c r="B47" s="45"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="45"/>
       <c r="B48" s="45"/>
     </row>
@@ -9226,11 +9298,11 @@
       <c r="B67" s="45"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A67">
-    <sortCondition ref="A1:A67"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:H67">
+    <sortCondition ref="C1:C67"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1" display="http://www.eckersapplefarm.com/" xr:uid="{070CB8BE-E63F-4400-8C1E-678B95B496A7}"/>
+    <hyperlink ref="A23" r:id="rId1" display="http://www.eckersapplefarm.com/" xr:uid="{070CB8BE-E63F-4400-8C1E-678B95B496A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Build/Input/Responses.xlsx
+++ b/Build/Input/Responses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ta0jrg1\Documents\Projects\FoodHubs\Build\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E846EE2-4E2C-4C69-BE02-0D905B167054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62251B98-2D59-4B54-9BCA-0A93D39C1971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13125" yWindow="3135" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions and Types" sheetId="3" r:id="rId1"/>
@@ -2183,9 +2183,6 @@
     <t>Founding</t>
   </si>
   <si>
-    <t>nonprofit - affiliated</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -2282,9 +2279,6 @@
     <t>2862 Locust Rd</t>
   </si>
   <si>
-    <t>Related Hub</t>
-  </si>
-  <si>
     <t>Angie's Honey</t>
   </si>
   <si>
@@ -3921,6 +3915,12 @@
   </si>
   <si>
     <t>Part Time Employeess (JRG - Added)</t>
+  </si>
+  <si>
+    <t>Legal</t>
+  </si>
+  <si>
+    <t>FarmPer6</t>
   </si>
 </sst>
 </file>
@@ -4164,6 +4164,7 @@
       <sz val="11"/>
       <color indexed="64"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -4644,9 +4645,6 @@
     <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4660,6 +4658,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5019,14 +5020,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6CD354-965E-4238-8834-48E382BF860B}">
   <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.875" customWidth="1"/>
+    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="146.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.75" style="40" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.75" bestFit="1" customWidth="1"/>
@@ -5039,7 +5040,7 @@
         <v>330</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>459</v>
@@ -5061,8 +5062,8 @@
       <c r="A2" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>873</v>
+      <c r="B2" s="45" t="s">
+        <v>871</v>
       </c>
       <c r="C2" t="s">
         <v>47</v>
@@ -5084,8 +5085,8 @@
       <c r="A3" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="B3" s="46" t="s">
-        <v>874</v>
+      <c r="B3" s="45" t="s">
+        <v>872</v>
       </c>
       <c r="C3" t="s">
         <v>48</v>
@@ -5107,8 +5108,8 @@
       <c r="A4" s="20" t="s">
         <v>334</v>
       </c>
-      <c r="B4" s="46" t="s">
-        <v>875</v>
+      <c r="B4" s="45" t="s">
+        <v>873</v>
       </c>
       <c r="C4" t="s">
         <v>49</v>
@@ -5130,8 +5131,8 @@
       <c r="A5" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="B5" s="46" t="s">
-        <v>876</v>
+      <c r="B5" s="45" t="s">
+        <v>874</v>
       </c>
       <c r="C5" t="s">
         <v>50</v>
@@ -5153,8 +5154,8 @@
       <c r="A6" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="B6" s="46" t="s">
-        <v>877</v>
+      <c r="B6" s="45" t="s">
+        <v>875</v>
       </c>
       <c r="C6" t="s">
         <v>51</v>
@@ -5176,8 +5177,8 @@
       <c r="A7" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="B7" s="46" t="s">
-        <v>878</v>
+      <c r="B7" s="45" t="s">
+        <v>876</v>
       </c>
       <c r="C7" t="s">
         <v>52</v>
@@ -5199,8 +5200,8 @@
       <c r="A8" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="B8" s="46" t="s">
-        <v>879</v>
+      <c r="B8" s="45" t="s">
+        <v>877</v>
       </c>
       <c r="C8" t="s">
         <v>53</v>
@@ -5222,7 +5223,7 @@
       <c r="A9" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="45" t="s">
         <v>270</v>
       </c>
       <c r="C9" t="s">
@@ -5245,8 +5246,8 @@
       <c r="A10" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="B10" s="46" t="s">
-        <v>880</v>
+      <c r="B10" s="45" t="s">
+        <v>878</v>
       </c>
       <c r="C10" t="s">
         <v>55</v>
@@ -5268,8 +5269,8 @@
       <c r="A11" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="B11" s="46" t="s">
-        <v>881</v>
+      <c r="B11" s="45" t="s">
+        <v>879</v>
       </c>
       <c r="C11" t="s">
         <v>56</v>
@@ -5291,8 +5292,8 @@
       <c r="A12" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="B12" s="46" t="s">
-        <v>882</v>
+      <c r="B12" s="45" t="s">
+        <v>880</v>
       </c>
       <c r="C12" t="s">
         <v>57</v>
@@ -5331,8 +5332,8 @@
       <c r="A14" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="B14" s="46" t="s">
-        <v>883</v>
+      <c r="B14" s="45" t="s">
+        <v>881</v>
       </c>
       <c r="C14" t="s">
         <v>58</v>
@@ -5348,8 +5349,8 @@
       <c r="A15" s="20" t="s">
         <v>460</v>
       </c>
-      <c r="B15" s="46" t="s">
-        <v>884</v>
+      <c r="B15" s="45" t="s">
+        <v>882</v>
       </c>
       <c r="C15" t="s">
         <v>59</v>
@@ -5365,8 +5366,8 @@
       <c r="A16" s="20" t="s">
         <v>461</v>
       </c>
-      <c r="B16" s="46" t="s">
-        <v>885</v>
+      <c r="B16" s="45" t="s">
+        <v>883</v>
       </c>
       <c r="C16" t="s">
         <v>60</v>
@@ -5382,8 +5383,8 @@
       <c r="A17" s="20" t="s">
         <v>462</v>
       </c>
-      <c r="B17" s="46" t="s">
-        <v>886</v>
+      <c r="B17" s="45" t="s">
+        <v>884</v>
       </c>
       <c r="C17" t="s">
         <v>61</v>
@@ -5399,8 +5400,8 @@
       <c r="A18" s="20" t="s">
         <v>463</v>
       </c>
-      <c r="B18" s="46" t="s">
-        <v>887</v>
+      <c r="B18" s="45" t="s">
+        <v>885</v>
       </c>
       <c r="C18" t="s">
         <v>62</v>
@@ -5416,8 +5417,8 @@
       <c r="A19" s="20" t="s">
         <v>464</v>
       </c>
-      <c r="B19" s="46" t="s">
-        <v>888</v>
+      <c r="B19" s="45" t="s">
+        <v>886</v>
       </c>
       <c r="C19" t="s">
         <v>63</v>
@@ -5433,8 +5434,8 @@
       <c r="A20" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="B20" s="46" t="s">
-        <v>889</v>
+      <c r="B20" s="45" t="s">
+        <v>887</v>
       </c>
       <c r="C20" t="s">
         <v>64</v>
@@ -5450,8 +5451,8 @@
       <c r="A21" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="B21" s="46" t="s">
-        <v>890</v>
+      <c r="B21" s="45" t="s">
+        <v>888</v>
       </c>
       <c r="C21" t="s">
         <v>65</v>
@@ -5467,8 +5468,8 @@
       <c r="A22" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="B22" s="46" t="s">
-        <v>891</v>
+      <c r="B22" s="45" t="s">
+        <v>889</v>
       </c>
       <c r="C22" t="s">
         <v>66</v>
@@ -5484,8 +5485,8 @@
       <c r="A23" s="20" t="s">
         <v>468</v>
       </c>
-      <c r="B23" s="46" t="s">
-        <v>892</v>
+      <c r="B23" s="45" t="s">
+        <v>890</v>
       </c>
       <c r="C23" t="s">
         <v>67</v>
@@ -5501,8 +5502,8 @@
       <c r="A24" s="20" t="s">
         <v>469</v>
       </c>
-      <c r="B24" s="46" t="s">
-        <v>893</v>
+      <c r="B24" s="45" t="s">
+        <v>891</v>
       </c>
       <c r="C24" t="s">
         <v>68</v>
@@ -5519,7 +5520,7 @@
         <v>470</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C25" t="s">
         <v>69</v>
@@ -5535,16 +5536,16 @@
       <c r="A26" s="20" t="s">
         <v>471</v>
       </c>
-      <c r="B26" s="46" t="s">
-        <v>894</v>
+      <c r="B26" s="45" t="s">
+        <v>892</v>
       </c>
       <c r="C26" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="51" t="s">
         <v>346</v>
       </c>
-      <c r="E26" s="42"/>
+      <c r="E26" s="51"/>
     </row>
     <row r="27" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
@@ -5561,8 +5562,8 @@
       <c r="A28" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="B28" s="46" t="s">
-        <v>896</v>
+      <c r="B28" s="45" t="s">
+        <v>894</v>
       </c>
       <c r="C28" t="s">
         <v>71</v>
@@ -5575,8 +5576,8 @@
       <c r="A29" s="20" t="s">
         <v>472</v>
       </c>
-      <c r="B29" s="46" t="s">
-        <v>897</v>
+      <c r="B29" s="45" t="s">
+        <v>895</v>
       </c>
       <c r="C29" t="s">
         <v>72</v>
@@ -5589,8 +5590,8 @@
       <c r="A30" s="20" t="s">
         <v>473</v>
       </c>
-      <c r="B30" s="46" t="s">
-        <v>898</v>
+      <c r="B30" s="45" t="s">
+        <v>896</v>
       </c>
       <c r="C30" t="s">
         <v>73</v>
@@ -5603,8 +5604,8 @@
       <c r="A31" s="20" t="s">
         <v>474</v>
       </c>
-      <c r="B31" s="46" t="s">
-        <v>899</v>
+      <c r="B31" s="45" t="s">
+        <v>897</v>
       </c>
       <c r="C31" t="s">
         <v>74</v>
@@ -5617,8 +5618,8 @@
       <c r="A32" s="20" t="s">
         <v>475</v>
       </c>
-      <c r="B32" s="46" t="s">
-        <v>900</v>
+      <c r="B32" s="45" t="s">
+        <v>898</v>
       </c>
       <c r="C32" t="s">
         <v>75</v>
@@ -5631,8 +5632,8 @@
       <c r="A33" s="20" t="s">
         <v>476</v>
       </c>
-      <c r="B33" s="46" t="s">
-        <v>901</v>
+      <c r="B33" s="45" t="s">
+        <v>899</v>
       </c>
       <c r="C33" t="s">
         <v>76</v>
@@ -5645,8 +5646,8 @@
       <c r="A34" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="B34" s="46" t="s">
-        <v>902</v>
+      <c r="B34" s="45" t="s">
+        <v>900</v>
       </c>
       <c r="C34" t="s">
         <v>77</v>
@@ -5659,8 +5660,8 @@
       <c r="A35" s="20" t="s">
         <v>478</v>
       </c>
-      <c r="B35" s="46" t="s">
-        <v>903</v>
+      <c r="B35" s="45" t="s">
+        <v>901</v>
       </c>
       <c r="C35" t="s">
         <v>78</v>
@@ -5673,8 +5674,8 @@
       <c r="A36" s="20" t="s">
         <v>479</v>
       </c>
-      <c r="B36" s="46" t="s">
-        <v>904</v>
+      <c r="B36" s="45" t="s">
+        <v>902</v>
       </c>
       <c r="C36" t="s">
         <v>79</v>
@@ -5687,8 +5688,8 @@
       <c r="A37" s="20" t="s">
         <v>480</v>
       </c>
-      <c r="B37" s="46" t="s">
-        <v>905</v>
+      <c r="B37" s="45" t="s">
+        <v>903</v>
       </c>
       <c r="C37" t="s">
         <v>80</v>
@@ -5701,16 +5702,16 @@
       <c r="A38" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="B38" s="46" t="s">
-        <v>906</v>
+      <c r="B38" s="45" t="s">
+        <v>904</v>
       </c>
       <c r="C38" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="42" t="s">
+      <c r="D38" s="51" t="s">
         <v>346</v>
       </c>
-      <c r="E38" s="42"/>
+      <c r="E38" s="51"/>
     </row>
     <row r="39" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
@@ -5730,8 +5731,8 @@
       <c r="A40" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="B40" s="46" t="s">
-        <v>907</v>
+      <c r="B40" s="45" t="s">
+        <v>905</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>82</v>
@@ -5747,8 +5748,8 @@
       <c r="A41" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="B41" s="46" t="s">
-        <v>908</v>
+      <c r="B41" s="45" t="s">
+        <v>906</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>83</v>
@@ -5764,8 +5765,8 @@
       <c r="A42" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="B42" s="46" t="s">
-        <v>909</v>
+      <c r="B42" s="45" t="s">
+        <v>907</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>84</v>
@@ -5781,8 +5782,8 @@
       <c r="A43" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="B43" s="46" t="s">
-        <v>910</v>
+      <c r="B43" s="45" t="s">
+        <v>908</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>85</v>
@@ -5798,8 +5799,8 @@
       <c r="A44" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="B44" s="46" t="s">
-        <v>911</v>
+      <c r="B44" s="45" t="s">
+        <v>909</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>86</v>
@@ -5815,8 +5816,8 @@
       <c r="A45" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="B45" s="46" t="s">
-        <v>912</v>
+      <c r="B45" s="45" t="s">
+        <v>910</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>87</v>
@@ -5832,8 +5833,8 @@
       <c r="A46" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="B46" s="46" t="s">
-        <v>916</v>
+      <c r="B46" s="45" t="s">
+        <v>914</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>88</v>
@@ -5847,8 +5848,8 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="20"/>
-      <c r="B47" s="46" t="s">
-        <v>913</v>
+      <c r="B47" s="45" t="s">
+        <v>911</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>89</v>
@@ -5859,11 +5860,11 @@
       <c r="A48" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="B48" s="46" t="s">
-        <v>915</v>
+      <c r="B48" s="45" t="s">
+        <v>913</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="D48" s="40">
         <v>0</v>
@@ -5876,8 +5877,8 @@
       <c r="A49" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="B49" s="46" t="s">
-        <v>914</v>
+      <c r="B49" s="45" t="s">
+        <v>912</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>90</v>
@@ -5905,11 +5906,11 @@
       <c r="A51" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="B51" s="46" t="s">
-        <v>1060</v>
+      <c r="B51" s="45" t="s">
+        <v>1058</v>
       </c>
       <c r="C51" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="D51" s="40" t="s">
         <v>362</v>
@@ -5918,11 +5919,11 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
-      <c r="B52" s="46" t="s">
-        <v>1059</v>
+      <c r="B52" s="45" t="s">
+        <v>1057</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E52" s="40"/>
     </row>
@@ -5939,8 +5940,8 @@
       <c r="A54" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="B54" s="46" t="s">
-        <v>917</v>
+      <c r="B54" s="45" t="s">
+        <v>915</v>
       </c>
       <c r="C54" t="s">
         <v>91</v>
@@ -5953,8 +5954,8 @@
       <c r="A55" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="B55" s="46" t="s">
-        <v>918</v>
+      <c r="B55" s="45" t="s">
+        <v>916</v>
       </c>
       <c r="C55" t="s">
         <v>92</v>
@@ -5967,7 +5968,7 @@
       <c r="A56" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="B56" s="46" t="s">
+      <c r="B56" s="45" t="s">
         <v>366</v>
       </c>
       <c r="C56" t="s">
@@ -5981,8 +5982,8 @@
       <c r="A57" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="B57" s="46" t="s">
-        <v>919</v>
+      <c r="B57" s="45" t="s">
+        <v>917</v>
       </c>
       <c r="C57" t="s">
         <v>94</v>
@@ -5995,8 +5996,8 @@
       <c r="A58" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="B58" s="46" t="s">
-        <v>920</v>
+      <c r="B58" s="45" t="s">
+        <v>918</v>
       </c>
       <c r="C58" t="s">
         <v>95</v>
@@ -6009,8 +6010,8 @@
       <c r="A59" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="B59" s="46" t="s">
-        <v>921</v>
+      <c r="B59" s="45" t="s">
+        <v>919</v>
       </c>
       <c r="C59" t="s">
         <v>96</v>
@@ -6023,7 +6024,7 @@
       <c r="A60" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="B60" s="46" t="s">
+      <c r="B60" s="45" t="s">
         <v>369</v>
       </c>
       <c r="C60" t="s">
@@ -6037,8 +6038,8 @@
       <c r="A61" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="B61" s="46" t="s">
-        <v>922</v>
+      <c r="B61" s="45" t="s">
+        <v>920</v>
       </c>
       <c r="C61" t="s">
         <v>98</v>
@@ -6051,8 +6052,8 @@
       <c r="A62" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="B62" s="46" t="s">
-        <v>923</v>
+      <c r="B62" s="45" t="s">
+        <v>921</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>99</v>
@@ -6065,8 +6066,8 @@
       <c r="A63" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="B63" s="46" t="s">
-        <v>924</v>
+      <c r="B63" s="45" t="s">
+        <v>922</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>100</v>
@@ -6079,7 +6080,7 @@
       <c r="A64" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="B64" s="46" t="s">
+      <c r="B64" s="45" t="s">
         <v>373</v>
       </c>
       <c r="C64" s="7" t="s">
@@ -6093,8 +6094,8 @@
       <c r="A65" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="B65" s="46" t="s">
-        <v>925</v>
+      <c r="B65" s="45" t="s">
+        <v>923</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>102</v>
@@ -6107,8 +6108,8 @@
       <c r="A66" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="B66" s="46" t="s">
-        <v>926</v>
+      <c r="B66" s="45" t="s">
+        <v>924</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>103</v>
@@ -6121,8 +6122,8 @@
       <c r="A67" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="B67" s="46" t="s">
-        <v>927</v>
+      <c r="B67" s="45" t="s">
+        <v>925</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>104</v>
@@ -6135,7 +6136,7 @@
       <c r="A68" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="B68" s="46" t="s">
+      <c r="B68" s="45" t="s">
         <v>377</v>
       </c>
       <c r="C68" s="7" t="s">
@@ -6149,8 +6150,8 @@
       <c r="A69" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="B69" s="46" t="s">
-        <v>928</v>
+      <c r="B69" s="45" t="s">
+        <v>926</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>106</v>
@@ -6163,8 +6164,8 @@
       <c r="A70" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="B70" s="46" t="s">
-        <v>929</v>
+      <c r="B70" s="45" t="s">
+        <v>927</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>107</v>
@@ -6177,8 +6178,8 @@
       <c r="A71" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="B71" s="46" t="s">
-        <v>930</v>
+      <c r="B71" s="45" t="s">
+        <v>928</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>108</v>
@@ -6191,7 +6192,7 @@
       <c r="A72" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="B72" s="46" t="s">
+      <c r="B72" s="45" t="s">
         <v>381</v>
       </c>
       <c r="C72" s="7" t="s">
@@ -6205,8 +6206,8 @@
       <c r="A73" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="B73" s="46" t="s">
-        <v>931</v>
+      <c r="B73" s="45" t="s">
+        <v>929</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>110</v>
@@ -6219,8 +6220,8 @@
       <c r="A74" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="B74" s="46" t="s">
-        <v>932</v>
+      <c r="B74" s="45" t="s">
+        <v>930</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>111</v>
@@ -6233,8 +6234,8 @@
       <c r="A75" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="B75" s="46" t="s">
-        <v>933</v>
+      <c r="B75" s="45" t="s">
+        <v>931</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>112</v>
@@ -6247,7 +6248,7 @@
       <c r="A76" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="B76" s="46" t="s">
+      <c r="B76" s="45" t="s">
         <v>385</v>
       </c>
       <c r="C76" s="7" t="s">
@@ -6261,8 +6262,8 @@
       <c r="A77" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="B77" s="46" t="s">
-        <v>931</v>
+      <c r="B77" s="45" t="s">
+        <v>929</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>114</v>
@@ -6286,8 +6287,8 @@
       <c r="A79" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="B79" s="47" t="s">
-        <v>934</v>
+      <c r="B79" s="46" t="s">
+        <v>932</v>
       </c>
       <c r="C79" t="s">
         <v>119</v>
@@ -6300,8 +6301,8 @@
       <c r="A80" s="21" t="s">
         <v>391</v>
       </c>
-      <c r="B80" s="47" t="s">
-        <v>935</v>
+      <c r="B80" s="46" t="s">
+        <v>933</v>
       </c>
       <c r="C80" t="s">
         <v>120</v>
@@ -6314,8 +6315,8 @@
       <c r="A81" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="B81" s="47" t="s">
-        <v>936</v>
+      <c r="B81" s="46" t="s">
+        <v>934</v>
       </c>
       <c r="C81" t="s">
         <v>121</v>
@@ -6328,8 +6329,8 @@
       <c r="A82" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="B82" s="47" t="s">
-        <v>937</v>
+      <c r="B82" s="46" t="s">
+        <v>935</v>
       </c>
       <c r="C82" t="s">
         <v>122</v>
@@ -6342,8 +6343,8 @@
       <c r="A83" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="B83" s="47" t="s">
-        <v>938</v>
+      <c r="B83" s="46" t="s">
+        <v>936</v>
       </c>
       <c r="C83" t="s">
         <v>123</v>
@@ -6356,8 +6357,8 @@
       <c r="A84" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="B84" s="47" t="s">
-        <v>939</v>
+      <c r="B84" s="46" t="s">
+        <v>937</v>
       </c>
       <c r="C84" t="s">
         <v>124</v>
@@ -6370,8 +6371,8 @@
       <c r="A85" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="B85" s="47" t="s">
-        <v>940</v>
+      <c r="B85" s="46" t="s">
+        <v>938</v>
       </c>
       <c r="C85" t="s">
         <v>125</v>
@@ -6384,8 +6385,8 @@
       <c r="A86" s="21" t="s">
         <v>397</v>
       </c>
-      <c r="B86" s="47" t="s">
-        <v>941</v>
+      <c r="B86" s="46" t="s">
+        <v>939</v>
       </c>
       <c r="C86" t="s">
         <v>126</v>
@@ -6398,8 +6399,8 @@
       <c r="A87" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="B87" s="47" t="s">
-        <v>942</v>
+      <c r="B87" s="46" t="s">
+        <v>940</v>
       </c>
       <c r="C87" t="s">
         <v>127</v>
@@ -6412,8 +6413,8 @@
       <c r="A88" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="B88" s="47" t="s">
-        <v>943</v>
+      <c r="B88" s="46" t="s">
+        <v>941</v>
       </c>
       <c r="C88" t="s">
         <v>128</v>
@@ -6426,8 +6427,8 @@
       <c r="A89" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="B89" s="47" t="s">
-        <v>944</v>
+      <c r="B89" s="46" t="s">
+        <v>942</v>
       </c>
       <c r="C89" t="s">
         <v>129</v>
@@ -6440,8 +6441,8 @@
       <c r="A90" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="B90" s="47" t="s">
-        <v>945</v>
+      <c r="B90" s="46" t="s">
+        <v>943</v>
       </c>
       <c r="C90" t="s">
         <v>130</v>
@@ -6454,8 +6455,8 @@
       <c r="A91" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="B91" s="47" t="s">
-        <v>946</v>
+      <c r="B91" s="46" t="s">
+        <v>944</v>
       </c>
       <c r="C91" t="s">
         <v>131</v>
@@ -6478,8 +6479,8 @@
       <c r="A93" s="21" t="s">
         <v>409</v>
       </c>
-      <c r="B93" s="47" t="s">
-        <v>947</v>
+      <c r="B93" s="46" t="s">
+        <v>945</v>
       </c>
       <c r="C93" t="s">
         <v>406</v>
@@ -6492,8 +6493,8 @@
       <c r="A94" s="21" t="s">
         <v>410</v>
       </c>
-      <c r="B94" s="47" t="s">
-        <v>948</v>
+      <c r="B94" s="46" t="s">
+        <v>946</v>
       </c>
       <c r="C94" t="s">
         <v>407</v>
@@ -6506,8 +6507,8 @@
       <c r="A95" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="B95" s="47" t="s">
-        <v>949</v>
+      <c r="B95" s="46" t="s">
+        <v>947</v>
       </c>
       <c r="C95" t="s">
         <v>408</v>
@@ -6529,8 +6530,8 @@
       <c r="A97" s="20" t="s">
         <v>414</v>
       </c>
-      <c r="B97" s="46" t="s">
-        <v>950</v>
+      <c r="B97" s="45" t="s">
+        <v>948</v>
       </c>
       <c r="C97" t="s">
         <v>136</v>
@@ -6543,8 +6544,8 @@
       <c r="A98" s="20" t="s">
         <v>415</v>
       </c>
-      <c r="B98" s="46" t="s">
-        <v>951</v>
+      <c r="B98" s="45" t="s">
+        <v>949</v>
       </c>
       <c r="C98" t="s">
         <v>137</v>
@@ -6557,8 +6558,8 @@
       <c r="A99" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="B99" s="46" t="s">
-        <v>952</v>
+      <c r="B99" s="45" t="s">
+        <v>950</v>
       </c>
       <c r="C99" t="s">
         <v>138</v>
@@ -6571,8 +6572,8 @@
       <c r="A100" s="20" t="s">
         <v>417</v>
       </c>
-      <c r="B100" s="46" t="s">
-        <v>953</v>
+      <c r="B100" s="45" t="s">
+        <v>951</v>
       </c>
       <c r="C100" t="s">
         <v>139</v>
@@ -6585,8 +6586,8 @@
       <c r="A101" s="20" t="s">
         <v>418</v>
       </c>
-      <c r="B101" s="46" t="s">
-        <v>954</v>
+      <c r="B101" s="45" t="s">
+        <v>952</v>
       </c>
       <c r="C101" t="s">
         <v>140</v>
@@ -6599,8 +6600,8 @@
       <c r="A102" s="20" t="s">
         <v>419</v>
       </c>
-      <c r="B102" s="46" t="s">
-        <v>955</v>
+      <c r="B102" s="45" t="s">
+        <v>953</v>
       </c>
       <c r="C102" t="s">
         <v>141</v>
@@ -6613,8 +6614,8 @@
       <c r="A103" s="20" t="s">
         <v>420</v>
       </c>
-      <c r="B103" s="46" t="s">
-        <v>956</v>
+      <c r="B103" s="45" t="s">
+        <v>954</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>142</v>
@@ -6627,8 +6628,8 @@
       <c r="A104" s="20" t="s">
         <v>421</v>
       </c>
-      <c r="B104" s="46" t="s">
-        <v>957</v>
+      <c r="B104" s="45" t="s">
+        <v>955</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>143</v>
@@ -6641,8 +6642,8 @@
       <c r="A105" s="20" t="s">
         <v>422</v>
       </c>
-      <c r="B105" s="46" t="s">
-        <v>958</v>
+      <c r="B105" s="45" t="s">
+        <v>956</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>144</v>
@@ -6655,8 +6656,8 @@
       <c r="A106" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="B106" s="46" t="s">
-        <v>959</v>
+      <c r="B106" s="45" t="s">
+        <v>957</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>145</v>
@@ -6669,8 +6670,8 @@
       <c r="A107" s="20" t="s">
         <v>424</v>
       </c>
-      <c r="B107" s="46" t="s">
-        <v>960</v>
+      <c r="B107" s="45" t="s">
+        <v>958</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>146</v>
@@ -6683,8 +6684,8 @@
       <c r="A108" s="20" t="s">
         <v>425</v>
       </c>
-      <c r="B108" s="46" t="s">
-        <v>961</v>
+      <c r="B108" s="45" t="s">
+        <v>959</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>147</v>
@@ -6697,8 +6698,8 @@
       <c r="A109" s="20" t="s">
         <v>426</v>
       </c>
-      <c r="B109" s="46" t="s">
-        <v>962</v>
+      <c r="B109" s="45" t="s">
+        <v>960</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>148</v>
@@ -6711,8 +6712,8 @@
       <c r="A110" s="20" t="s">
         <v>427</v>
       </c>
-      <c r="B110" s="46" t="s">
-        <v>963</v>
+      <c r="B110" s="45" t="s">
+        <v>961</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>149</v>
@@ -6725,8 +6726,8 @@
       <c r="A111" s="20" t="s">
         <v>428</v>
       </c>
-      <c r="B111" s="46" t="s">
-        <v>964</v>
+      <c r="B111" s="45" t="s">
+        <v>962</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>150</v>
@@ -6739,8 +6740,8 @@
       <c r="A112" s="20" t="s">
         <v>429</v>
       </c>
-      <c r="B112" s="46" t="s">
-        <v>965</v>
+      <c r="B112" s="45" t="s">
+        <v>963</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>151</v>
@@ -6753,8 +6754,8 @@
       <c r="A113" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="B113" s="46" t="s">
-        <v>966</v>
+      <c r="B113" s="45" t="s">
+        <v>964</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>152</v>
@@ -6767,8 +6768,8 @@
       <c r="A114" s="20" t="s">
         <v>431</v>
       </c>
-      <c r="B114" s="46" t="s">
-        <v>967</v>
+      <c r="B114" s="45" t="s">
+        <v>965</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>153</v>
@@ -6792,8 +6793,8 @@
       <c r="A116" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="B116" s="46" t="s">
-        <v>971</v>
+      <c r="B116" s="45" t="s">
+        <v>969</v>
       </c>
       <c r="C116" t="s">
         <v>433</v>
@@ -6806,8 +6807,8 @@
       <c r="A117" s="20" t="s">
         <v>436</v>
       </c>
-      <c r="B117" s="46" t="s">
-        <v>972</v>
+      <c r="B117" s="45" t="s">
+        <v>970</v>
       </c>
       <c r="C117" t="s">
         <v>159</v>
@@ -6820,8 +6821,8 @@
       <c r="A118" s="20" t="s">
         <v>437</v>
       </c>
-      <c r="B118" s="46" t="s">
-        <v>973</v>
+      <c r="B118" s="45" t="s">
+        <v>971</v>
       </c>
       <c r="C118" t="s">
         <v>160</v>
@@ -6834,8 +6835,8 @@
       <c r="A119" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="B119" s="46" t="s">
-        <v>974</v>
+      <c r="B119" s="45" t="s">
+        <v>972</v>
       </c>
       <c r="C119" t="s">
         <v>161</v>
@@ -6848,8 +6849,8 @@
       <c r="A120" s="20" t="s">
         <v>439</v>
       </c>
-      <c r="B120" s="46" t="s">
-        <v>975</v>
+      <c r="B120" s="45" t="s">
+        <v>973</v>
       </c>
       <c r="C120" t="s">
         <v>162</v>
@@ -6862,8 +6863,8 @@
       <c r="A121" s="20" t="s">
         <v>440</v>
       </c>
-      <c r="B121" s="46" t="s">
-        <v>976</v>
+      <c r="B121" s="45" t="s">
+        <v>974</v>
       </c>
       <c r="C121" t="s">
         <v>163</v>
@@ -6876,8 +6877,8 @@
       <c r="A122" s="20" t="s">
         <v>441</v>
       </c>
-      <c r="B122" s="46" t="s">
-        <v>977</v>
+      <c r="B122" s="45" t="s">
+        <v>975</v>
       </c>
       <c r="C122" t="s">
         <v>164</v>
@@ -6890,8 +6891,8 @@
       <c r="A123" s="20" t="s">
         <v>442</v>
       </c>
-      <c r="B123" s="46" t="s">
-        <v>978</v>
+      <c r="B123" s="45" t="s">
+        <v>976</v>
       </c>
       <c r="C123" t="s">
         <v>165</v>
@@ -6904,8 +6905,8 @@
       <c r="A124" s="20" t="s">
         <v>443</v>
       </c>
-      <c r="B124" s="46" t="s">
-        <v>979</v>
+      <c r="B124" s="45" t="s">
+        <v>977</v>
       </c>
       <c r="C124" t="s">
         <v>166</v>
@@ -6918,8 +6919,8 @@
       <c r="A125" s="20" t="s">
         <v>444</v>
       </c>
-      <c r="B125" s="46" t="s">
-        <v>980</v>
+      <c r="B125" s="45" t="s">
+        <v>978</v>
       </c>
       <c r="C125" t="s">
         <v>167</v>
@@ -6932,8 +6933,8 @@
       <c r="A126" s="20" t="s">
         <v>445</v>
       </c>
-      <c r="B126" s="46" t="s">
-        <v>981</v>
+      <c r="B126" s="45" t="s">
+        <v>979</v>
       </c>
       <c r="C126" t="s">
         <v>168</v>
@@ -7102,9 +7103,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5C2B09-A9DD-492E-A2D5-3B0AF3402793}">
   <dimension ref="A1:DK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BA3" sqref="BA3"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CA13" sqref="CA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7177,16 +7178,16 @@
     <col min="69" max="69" width="7.875" style="24" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="9" style="24" bestFit="1" customWidth="1"/>
     <col min="71" max="72" width="9.75" style="24" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="10.75" style="24" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="10.25" style="24" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="11.25" style="24" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="8.75" style="24" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="36.25" style="24" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="9" style="24" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="9.625" style="24" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="10.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="9.25" style="24" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="8.75" style="24" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="10.25" style="24" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="8.75" style="24" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="9" style="24" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="9.625" style="24" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="10.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="9.25" style="24" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="8.75" style="24" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="10.75" style="24" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.25" style="24" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="36.25" style="24" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="32.125" style="24" bestFit="1" customWidth="1"/>
     <col min="84" max="86" width="9.625" style="24" bestFit="1" customWidth="1"/>
     <col min="87" max="87" width="32.75" style="24" bestFit="1" customWidth="1"/>
@@ -7225,346 +7226,346 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>486</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>487</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>482</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>19</v>
+        <v>1061</v>
       </c>
       <c r="F1" s="27" t="s">
+        <v>871</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>872</v>
+      </c>
+      <c r="H1" s="27" t="s">
         <v>873</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="I1" s="27" t="s">
         <v>874</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="J1" s="27" t="s">
         <v>875</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="K1" s="27" t="s">
         <v>876</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="L1" s="27" t="s">
         <v>877</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>878</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>879</v>
       </c>
       <c r="M1" s="27" t="s">
         <v>270</v>
       </c>
       <c r="N1" s="27" t="s">
+        <v>878</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>879</v>
+      </c>
+      <c r="P1" s="27" t="s">
         <v>880</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="Q1" s="27" t="s">
         <v>881</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="R1" s="27" t="s">
         <v>882</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="S1" s="27" t="s">
         <v>883</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="T1" s="27" t="s">
         <v>884</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="U1" s="27" t="s">
         <v>885</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="V1" s="27" t="s">
         <v>886</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="W1" s="27" t="s">
         <v>887</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="X1" s="27" t="s">
         <v>888</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="Y1" s="27" t="s">
         <v>889</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="Z1" s="27" t="s">
         <v>890</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="AA1" s="27" t="s">
         <v>891</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="AB1" s="26" t="s">
+        <v>893</v>
+      </c>
+      <c r="AC1" s="27" t="s">
         <v>892</v>
       </c>
-      <c r="AA1" s="27" t="s">
-        <v>893</v>
-      </c>
-      <c r="AB1" s="26" t="s">
+      <c r="AD1" s="27" t="s">
+        <v>894</v>
+      </c>
+      <c r="AE1" s="27" t="s">
         <v>895</v>
       </c>
-      <c r="AC1" s="27" t="s">
-        <v>894</v>
-      </c>
-      <c r="AD1" s="27" t="s">
+      <c r="AF1" s="27" t="s">
         <v>896</v>
       </c>
-      <c r="AE1" s="27" t="s">
+      <c r="AG1" s="27" t="s">
         <v>897</v>
       </c>
-      <c r="AF1" s="27" t="s">
+      <c r="AH1" s="27" t="s">
         <v>898</v>
       </c>
-      <c r="AG1" s="27" t="s">
+      <c r="AI1" s="27" t="s">
         <v>899</v>
       </c>
-      <c r="AH1" s="27" t="s">
+      <c r="AJ1" s="27" t="s">
         <v>900</v>
       </c>
-      <c r="AI1" s="27" t="s">
+      <c r="AK1" s="27" t="s">
         <v>901</v>
       </c>
-      <c r="AJ1" s="27" t="s">
+      <c r="AL1" s="27" t="s">
         <v>902</v>
       </c>
-      <c r="AK1" s="27" t="s">
+      <c r="AM1" s="27" t="s">
         <v>903</v>
       </c>
-      <c r="AL1" s="27" t="s">
+      <c r="AN1" s="27" t="s">
         <v>904</v>
       </c>
-      <c r="AM1" s="27" t="s">
+      <c r="AO1" s="27" t="s">
         <v>905</v>
       </c>
-      <c r="AN1" s="27" t="s">
+      <c r="AP1" s="27" t="s">
         <v>906</v>
       </c>
-      <c r="AO1" s="27" t="s">
+      <c r="AQ1" s="27" t="s">
         <v>907</v>
       </c>
-      <c r="AP1" s="27" t="s">
+      <c r="AR1" s="27" t="s">
         <v>908</v>
       </c>
-      <c r="AQ1" s="27" t="s">
+      <c r="AS1" s="27" t="s">
         <v>909</v>
       </c>
-      <c r="AR1" s="27" t="s">
+      <c r="AT1" s="27" t="s">
         <v>910</v>
       </c>
-      <c r="AS1" s="27" t="s">
+      <c r="AU1" s="27" t="s">
+        <v>914</v>
+      </c>
+      <c r="AV1" s="27" t="s">
         <v>911</v>
       </c>
-      <c r="AT1" s="27" t="s">
+      <c r="AW1" s="27" t="s">
+        <v>913</v>
+      </c>
+      <c r="AX1" s="27" t="s">
         <v>912</v>
       </c>
-      <c r="AU1" s="27" t="s">
+      <c r="AY1" s="27" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AZ1" s="27" t="s">
+        <v>1057</v>
+      </c>
+      <c r="BA1" s="27" t="s">
+        <v>915</v>
+      </c>
+      <c r="BB1" s="27" t="s">
         <v>916</v>
       </c>
-      <c r="AV1" s="27" t="s">
-        <v>913</v>
-      </c>
-      <c r="AW1" s="27" t="s">
-        <v>915</v>
-      </c>
-      <c r="AX1" s="27" t="s">
-        <v>914</v>
-      </c>
-      <c r="AY1" s="27" t="s">
-        <v>1058</v>
-      </c>
-      <c r="AZ1" s="27" t="s">
-        <v>1059</v>
-      </c>
-      <c r="BA1" s="27" t="s">
+      <c r="BC1" s="27" t="s">
         <v>917</v>
       </c>
-      <c r="BB1" s="27" t="s">
+      <c r="BD1" s="27" t="s">
         <v>918</v>
       </c>
-      <c r="BC1" s="27" t="s">
+      <c r="BE1" s="27" t="s">
         <v>919</v>
       </c>
-      <c r="BD1" s="27" t="s">
+      <c r="BF1" s="27" t="s">
         <v>920</v>
       </c>
-      <c r="BE1" s="27" t="s">
+      <c r="BG1" s="27" t="s">
         <v>921</v>
       </c>
-      <c r="BF1" s="27" t="s">
+      <c r="BH1" s="27" t="s">
         <v>922</v>
       </c>
-      <c r="BG1" s="27" t="s">
+      <c r="BI1" s="27" t="s">
         <v>923</v>
       </c>
-      <c r="BH1" s="27" t="s">
+      <c r="BJ1" s="27" t="s">
         <v>924</v>
       </c>
-      <c r="BI1" s="27" t="s">
+      <c r="BK1" s="27" t="s">
         <v>925</v>
       </c>
-      <c r="BJ1" s="27" t="s">
+      <c r="BL1" s="27" t="s">
         <v>926</v>
       </c>
-      <c r="BK1" s="27" t="s">
+      <c r="BM1" s="27" t="s">
         <v>927</v>
       </c>
-      <c r="BL1" s="27" t="s">
+      <c r="BN1" s="27" t="s">
         <v>928</v>
       </c>
-      <c r="BM1" s="27" t="s">
+      <c r="BO1" s="27" t="s">
         <v>929</v>
       </c>
-      <c r="BN1" s="27" t="s">
+      <c r="BP1" s="27" t="s">
         <v>930</v>
       </c>
-      <c r="BO1" s="27" t="s">
+      <c r="BQ1" s="27" t="s">
         <v>931</v>
       </c>
-      <c r="BP1" s="27" t="s">
+      <c r="BR1" s="27" t="s">
+        <v>1062</v>
+      </c>
+      <c r="BS1" s="28" t="s">
         <v>932</v>
       </c>
-      <c r="BQ1" s="27" t="s">
+      <c r="BT1" s="28" t="s">
         <v>933</v>
       </c>
-      <c r="BR1" s="27" t="s">
-        <v>931</v>
-      </c>
-      <c r="BS1" s="28" t="s">
-        <v>934</v>
-      </c>
-      <c r="BT1" s="28" t="s">
+      <c r="BU1" s="28" t="s">
         <v>935</v>
-      </c>
-      <c r="BU1" s="28" t="s">
-        <v>936</v>
       </c>
       <c r="BV1" s="28" t="s">
         <v>937</v>
       </c>
       <c r="BW1" s="28" t="s">
+        <v>939</v>
+      </c>
+      <c r="BX1" s="28" t="s">
+        <v>940</v>
+      </c>
+      <c r="BY1" s="28" t="s">
+        <v>941</v>
+      </c>
+      <c r="BZ1" s="28" t="s">
+        <v>942</v>
+      </c>
+      <c r="CA1" s="28" t="s">
+        <v>943</v>
+      </c>
+      <c r="CB1" s="28" t="s">
+        <v>934</v>
+      </c>
+      <c r="CC1" s="28" t="s">
+        <v>936</v>
+      </c>
+      <c r="CD1" s="28" t="s">
         <v>938</v>
       </c>
-      <c r="BX1" s="28" t="s">
-        <v>939</v>
-      </c>
-      <c r="BY1" s="28" t="s">
-        <v>940</v>
-      </c>
-      <c r="BZ1" s="28" t="s">
-        <v>941</v>
-      </c>
-      <c r="CA1" s="28" t="s">
-        <v>942</v>
-      </c>
-      <c r="CB1" s="28" t="s">
-        <v>943</v>
-      </c>
-      <c r="CC1" s="28" t="s">
+      <c r="CE1" s="28" t="s">
         <v>944</v>
       </c>
-      <c r="CD1" s="28" t="s">
+      <c r="CF1" s="28" t="s">
         <v>945</v>
       </c>
-      <c r="CE1" s="28" t="s">
+      <c r="CG1" s="28" t="s">
         <v>946</v>
       </c>
-      <c r="CF1" s="28" t="s">
+      <c r="CH1" s="28" t="s">
         <v>947</v>
       </c>
-      <c r="CG1" s="28" t="s">
+      <c r="CI1" s="27" t="s">
         <v>948</v>
       </c>
-      <c r="CH1" s="28" t="s">
+      <c r="CJ1" s="27" t="s">
         <v>949</v>
       </c>
-      <c r="CI1" s="27" t="s">
+      <c r="CK1" s="27" t="s">
         <v>950</v>
       </c>
-      <c r="CJ1" s="27" t="s">
+      <c r="CL1" s="27" t="s">
         <v>951</v>
       </c>
-      <c r="CK1" s="27" t="s">
+      <c r="CM1" s="27" t="s">
         <v>952</v>
       </c>
-      <c r="CL1" s="27" t="s">
+      <c r="CN1" s="27" t="s">
         <v>953</v>
       </c>
-      <c r="CM1" s="27" t="s">
+      <c r="CO1" s="27" t="s">
         <v>954</v>
       </c>
-      <c r="CN1" s="27" t="s">
+      <c r="CP1" s="27" t="s">
         <v>955</v>
       </c>
-      <c r="CO1" s="27" t="s">
+      <c r="CQ1" s="27" t="s">
         <v>956</v>
       </c>
-      <c r="CP1" s="27" t="s">
+      <c r="CR1" s="27" t="s">
         <v>957</v>
       </c>
-      <c r="CQ1" s="27" t="s">
+      <c r="CS1" s="27" t="s">
         <v>958</v>
       </c>
-      <c r="CR1" s="27" t="s">
+      <c r="CT1" s="27" t="s">
         <v>959</v>
       </c>
-      <c r="CS1" s="27" t="s">
+      <c r="CU1" s="27" t="s">
         <v>960</v>
       </c>
-      <c r="CT1" s="27" t="s">
+      <c r="CV1" s="27" t="s">
         <v>961</v>
       </c>
-      <c r="CU1" s="27" t="s">
+      <c r="CW1" s="27" t="s">
         <v>962</v>
       </c>
-      <c r="CV1" s="27" t="s">
+      <c r="CX1" s="27" t="s">
         <v>963</v>
       </c>
-      <c r="CW1" s="27" t="s">
+      <c r="CY1" s="27" t="s">
         <v>964</v>
       </c>
-      <c r="CX1" s="27" t="s">
+      <c r="CZ1" s="27" t="s">
         <v>965</v>
       </c>
-      <c r="CY1" s="27" t="s">
-        <v>966</v>
-      </c>
-      <c r="CZ1" s="27" t="s">
-        <v>967</v>
-      </c>
       <c r="DA1" s="27" t="s">
+        <v>969</v>
+      </c>
+      <c r="DB1" s="27" t="s">
+        <v>970</v>
+      </c>
+      <c r="DC1" s="27" t="s">
         <v>971</v>
       </c>
-      <c r="DB1" s="27" t="s">
+      <c r="DD1" s="27" t="s">
         <v>972</v>
       </c>
-      <c r="DC1" s="27" t="s">
+      <c r="DE1" s="27" t="s">
         <v>973</v>
       </c>
-      <c r="DD1" s="27" t="s">
+      <c r="DF1" s="27" t="s">
         <v>974</v>
       </c>
-      <c r="DE1" s="27" t="s">
+      <c r="DG1" s="27" t="s">
         <v>975</v>
       </c>
-      <c r="DF1" s="27" t="s">
+      <c r="DH1" s="27" t="s">
         <v>976</v>
       </c>
-      <c r="DG1" s="27" t="s">
+      <c r="DI1" s="27" t="s">
         <v>977</v>
       </c>
-      <c r="DH1" s="27" t="s">
+      <c r="DJ1" s="27" t="s">
         <v>978</v>
       </c>
-      <c r="DI1" s="27" t="s">
+      <c r="DK1" s="27" t="s">
         <v>979</v>
-      </c>
-      <c r="DJ1" s="27" t="s">
-        <v>980</v>
-      </c>
-      <c r="DK1" s="27" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="2" spans="1:115" x14ac:dyDescent="0.25">
@@ -7727,25 +7728,25 @@
       <c r="BT2" s="24">
         <v>0</v>
       </c>
+      <c r="BU2" s="24">
+        <v>0</v>
+      </c>
       <c r="BV2" s="24">
         <v>0</v>
       </c>
+      <c r="BW2" s="24">
+        <v>0</v>
+      </c>
       <c r="BX2" s="24">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="BY2" s="24">
+        <v>31</v>
       </c>
       <c r="BZ2" s="24">
         <v>0</v>
       </c>
       <c r="CA2" s="24">
-        <v>7</v>
-      </c>
-      <c r="CB2" s="24">
-        <v>31</v>
-      </c>
-      <c r="CC2" s="24">
-        <v>0</v>
-      </c>
-      <c r="CD2" s="24">
         <v>0</v>
       </c>
       <c r="CF2" s="29">
@@ -7758,30 +7759,30 @@
         <v>0</v>
       </c>
       <c r="CI2" s="24" t="s">
+        <v>966</v>
+      </c>
+      <c r="CJ2" s="42">
+        <v>60607</v>
+      </c>
+      <c r="CK2" s="43">
+        <v>40</v>
+      </c>
+      <c r="CL2" s="24" t="s">
+        <v>967</v>
+      </c>
+      <c r="CM2" s="44">
+        <v>46202</v>
+      </c>
+      <c r="CN2" s="43">
+        <v>15</v>
+      </c>
+      <c r="CO2" s="24" t="s">
         <v>968</v>
-      </c>
-      <c r="CJ2" s="43">
-        <v>60607</v>
-      </c>
-      <c r="CK2" s="44">
-        <v>40</v>
-      </c>
-      <c r="CL2" s="24" t="s">
-        <v>969</v>
-      </c>
-      <c r="CM2" s="45">
-        <v>46202</v>
-      </c>
-      <c r="CN2" s="44">
-        <v>15</v>
-      </c>
-      <c r="CO2" s="24" t="s">
-        <v>970</v>
       </c>
       <c r="CP2" s="24">
         <v>53201</v>
       </c>
-      <c r="CQ2" s="44">
+      <c r="CQ2" s="43">
         <v>25</v>
       </c>
       <c r="DA2" s="24">
@@ -8020,25 +8021,25 @@
       <c r="BT3" s="24">
         <v>0</v>
       </c>
+      <c r="BU3" s="24">
+        <v>5</v>
+      </c>
       <c r="BV3" s="24">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="BW3" s="24">
+        <v>0</v>
       </c>
       <c r="BX3" s="24">
         <v>0</v>
       </c>
+      <c r="BY3" s="24">
+        <v>0</v>
+      </c>
       <c r="BZ3" s="24">
         <v>0</v>
       </c>
       <c r="CA3" s="24">
-        <v>0</v>
-      </c>
-      <c r="CB3" s="24">
-        <v>0</v>
-      </c>
-      <c r="CC3" s="24">
-        <v>0</v>
-      </c>
-      <c r="CD3" s="24">
         <v>0</v>
       </c>
       <c r="CF3" s="29">
@@ -8056,7 +8057,7 @@
       <c r="CJ3" s="24">
         <v>62901</v>
       </c>
-      <c r="CK3" s="44">
+      <c r="CK3" s="43">
         <v>38</v>
       </c>
       <c r="CL3" s="24" t="s">
@@ -8065,7 +8066,7 @@
       <c r="CM3" s="24">
         <v>62920</v>
       </c>
-      <c r="CN3" s="44">
+      <c r="CN3" s="43">
         <v>22.3</v>
       </c>
       <c r="CO3" s="24" t="s">
@@ -8074,7 +8075,7 @@
       <c r="CP3" s="24">
         <v>62959</v>
       </c>
-      <c r="CQ3" s="44">
+      <c r="CQ3" s="43">
         <v>7.2</v>
       </c>
       <c r="CR3" s="24" t="s">
@@ -8325,29 +8326,29 @@
       <c r="BT4" s="24">
         <v>0</v>
       </c>
+      <c r="BU4" s="24">
+        <v>0</v>
+      </c>
       <c r="BV4" s="24">
+        <v>10</v>
+      </c>
+      <c r="BW4" s="24">
         <v>0</v>
       </c>
       <c r="BX4" s="24">
-        <v>10</v>
-      </c>
-      <c r="BY4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY4" s="24">
+        <v>0</v>
+      </c>
+      <c r="BZ4" s="24">
+        <v>0</v>
+      </c>
+      <c r="CA4" s="24">
+        <v>90</v>
+      </c>
+      <c r="CD4" s="24" t="s">
         <v>228</v>
-      </c>
-      <c r="BZ4" s="24">
-        <v>0</v>
-      </c>
-      <c r="CA4" s="24">
-        <v>0</v>
-      </c>
-      <c r="CB4" s="24">
-        <v>0</v>
-      </c>
-      <c r="CC4" s="24">
-        <v>0</v>
-      </c>
-      <c r="CD4" s="24">
-        <v>90</v>
       </c>
       <c r="CE4" s="24" t="s">
         <v>229</v>
@@ -8361,9 +8362,9 @@
       <c r="CH4" s="29">
         <v>0</v>
       </c>
-      <c r="CK4" s="44"/>
-      <c r="CN4" s="44"/>
-      <c r="CQ4" s="44"/>
+      <c r="CK4" s="43"/>
+      <c r="CN4" s="43"/>
+      <c r="CQ4" s="43"/>
       <c r="DA4" s="24">
         <v>0</v>
       </c>
@@ -8588,25 +8589,25 @@
       <c r="BT5" s="24">
         <v>5</v>
       </c>
+      <c r="BU5" s="24">
+        <v>6</v>
+      </c>
       <c r="BV5" s="24">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="BW5" s="24">
+        <v>1</v>
       </c>
       <c r="BX5" s="24">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="24">
+        <v>0</v>
+      </c>
+      <c r="BZ5" s="24">
         <v>4</v>
       </c>
-      <c r="BZ5" s="24">
-        <v>1</v>
-      </c>
       <c r="CA5" s="24">
-        <v>0</v>
-      </c>
-      <c r="CB5" s="24">
-        <v>0</v>
-      </c>
-      <c r="CC5" s="24">
-        <v>4</v>
-      </c>
-      <c r="CD5" s="24">
         <v>1</v>
       </c>
       <c r="CF5" s="29">
@@ -8621,34 +8622,34 @@
       <c r="CI5" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="CJ5" s="45">
+      <c r="CJ5" s="44">
         <v>52101</v>
       </c>
-      <c r="CK5" s="44">
+      <c r="CK5" s="43">
         <v>29</v>
       </c>
       <c r="CL5" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="CM5" s="45">
+      <c r="CM5" s="44">
         <v>52101</v>
       </c>
-      <c r="CN5" s="44">
+      <c r="CN5" s="43">
         <v>17</v>
       </c>
       <c r="CO5" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="CP5" s="45">
+      <c r="CP5" s="44">
         <v>52151</v>
       </c>
-      <c r="CQ5" s="44">
+      <c r="CQ5" s="43">
         <v>8</v>
       </c>
       <c r="CR5" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="CS5" s="45">
+      <c r="CS5" s="44">
         <v>52151</v>
       </c>
       <c r="CT5" s="24">
@@ -8866,25 +8867,25 @@
       <c r="BT6" s="24">
         <v>5</v>
       </c>
+      <c r="BU6" s="24">
+        <v>49</v>
+      </c>
       <c r="BV6" s="24">
-        <v>49</v>
+        <v>0</v>
+      </c>
+      <c r="BW6" s="24">
+        <v>0</v>
       </c>
       <c r="BX6" s="24">
         <v>0</v>
       </c>
+      <c r="BY6" s="24">
+        <v>0</v>
+      </c>
       <c r="BZ6" s="24">
         <v>0</v>
       </c>
       <c r="CA6" s="24">
-        <v>0</v>
-      </c>
-      <c r="CB6" s="24">
-        <v>0</v>
-      </c>
-      <c r="CC6" s="24">
-        <v>0</v>
-      </c>
-      <c r="CD6" s="24">
         <v>0</v>
       </c>
       <c r="CF6" s="29">
@@ -8902,7 +8903,7 @@
       <c r="CJ6" s="24">
         <v>52240</v>
       </c>
-      <c r="CK6" s="44">
+      <c r="CK6" s="43">
         <v>77</v>
       </c>
       <c r="CL6" s="24" t="s">
@@ -8911,7 +8912,7 @@
       <c r="CM6" s="24">
         <v>52361</v>
       </c>
-      <c r="CN6" s="44">
+      <c r="CN6" s="43">
         <v>6</v>
       </c>
       <c r="CO6" s="24" t="s">
@@ -8920,7 +8921,7 @@
       <c r="CP6" s="24">
         <v>52317</v>
       </c>
-      <c r="CQ6" s="44">
+      <c r="CQ6" s="43">
         <v>1.36</v>
       </c>
       <c r="CR6" s="24" t="s">
@@ -9034,7 +9035,7 @@
         <v>1</v>
       </c>
       <c r="U7" s="24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V7" s="24">
         <v>0</v>
@@ -9135,25 +9136,25 @@
       <c r="BT7" s="24">
         <v>0</v>
       </c>
+      <c r="BU7" s="24">
+        <v>0</v>
+      </c>
       <c r="BV7" s="24">
+        <v>45</v>
+      </c>
+      <c r="BW7" s="24">
         <v>0</v>
       </c>
       <c r="BX7" s="24">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="BY7" s="24">
+        <v>0</v>
       </c>
       <c r="BZ7" s="24">
         <v>0</v>
       </c>
       <c r="CA7" s="24">
-        <v>0</v>
-      </c>
-      <c r="CB7" s="24">
-        <v>0</v>
-      </c>
-      <c r="CC7" s="24">
-        <v>0</v>
-      </c>
-      <c r="CD7" s="24">
         <v>0</v>
       </c>
       <c r="CF7" s="29">
@@ -9165,7 +9166,7 @@
       <c r="CH7" s="29">
         <v>550000</v>
       </c>
-      <c r="CQ7" s="44"/>
+      <c r="CQ7" s="43"/>
       <c r="DA7" s="24">
         <v>65</v>
       </c>
@@ -9211,7 +9212,7 @@
         <v>2016</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>483</v>
+        <v>269</v>
       </c>
       <c r="F8" s="24">
         <v>1</v>
@@ -9349,37 +9350,37 @@
         <v>0</v>
       </c>
       <c r="BA8" s="24" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="BC8" s="24">
         <v>20.81</v>
       </c>
       <c r="BD8" s="24" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="BF8" s="24">
         <v>15.83</v>
       </c>
       <c r="BG8" s="24" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="BI8" s="24">
         <v>9.69</v>
       </c>
       <c r="BJ8" s="24" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="BL8" s="24">
         <v>7.53</v>
       </c>
       <c r="BM8" s="24" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="BO8" s="24">
         <v>7.46</v>
       </c>
       <c r="BP8" s="24" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="BR8" s="24">
         <v>6.81</v>
@@ -9390,35 +9391,35 @@
       <c r="BT8" s="24">
         <v>0</v>
       </c>
-      <c r="BU8" s="30" t="s">
+      <c r="BU8" s="24">
+        <v>0</v>
+      </c>
+      <c r="BV8" s="24">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="24">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="24">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="24">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="24">
+        <v>0</v>
+      </c>
+      <c r="CA8" s="24">
+        <v>0</v>
+      </c>
+      <c r="CB8" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="BV8" s="24">
-        <v>0</v>
-      </c>
-      <c r="BW8" s="30" t="s">
+      <c r="CC8" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="BX8" s="24">
-        <v>0</v>
-      </c>
-      <c r="BY8" s="30" t="s">
+      <c r="CD8" s="30" t="s">
         <v>316</v>
-      </c>
-      <c r="BZ8" s="24">
-        <v>0</v>
-      </c>
-      <c r="CA8" s="24">
-        <v>0</v>
-      </c>
-      <c r="CB8" s="24">
-        <v>0</v>
-      </c>
-      <c r="CC8" s="24">
-        <v>0</v>
-      </c>
-      <c r="CD8" s="24">
-        <v>0</v>
       </c>
       <c r="CF8" s="29">
         <v>350000</v>
@@ -9430,34 +9431,34 @@
         <v>350000</v>
       </c>
       <c r="CI8" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="CJ8" s="36">
         <v>49007</v>
       </c>
-      <c r="CK8" s="44">
+      <c r="CK8" s="43">
         <v>25</v>
       </c>
       <c r="CL8" s="24" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="CM8" s="36">
         <v>49007</v>
       </c>
-      <c r="CN8" s="44">
+      <c r="CN8" s="43">
         <v>17</v>
       </c>
       <c r="CO8" s="24" t="s">
-        <v>1056</v>
-      </c>
-      <c r="CP8" s="51">
+        <v>1054</v>
+      </c>
+      <c r="CP8" s="50">
         <v>49014</v>
       </c>
-      <c r="CQ8" s="44">
+      <c r="CQ8" s="43">
         <v>14</v>
       </c>
       <c r="CR8" s="24" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="CS8" s="36">
         <v>49001</v>
@@ -9466,7 +9467,7 @@
         <v>8</v>
       </c>
       <c r="CU8" s="24" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="CV8" s="36">
         <v>49007</v>
@@ -9516,28 +9517,28 @@
     </row>
     <row r="13" spans="1:115" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="CO14" s="50"/>
+      <c r="CO14" s="49"/>
     </row>
     <row r="15" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="CO15" s="50"/>
+      <c r="CO15" s="49"/>
     </row>
     <row r="16" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="CO16" s="50"/>
+      <c r="CO16" s="49"/>
     </row>
     <row r="17" spans="93:93" x14ac:dyDescent="0.25">
-      <c r="CO17" s="50"/>
+      <c r="CO17" s="49"/>
     </row>
     <row r="18" spans="93:93" x14ac:dyDescent="0.25">
-      <c r="CO18" s="50"/>
+      <c r="CO18" s="49"/>
     </row>
     <row r="19" spans="93:93" x14ac:dyDescent="0.25">
-      <c r="CO19" s="50"/>
+      <c r="CO19" s="49"/>
     </row>
     <row r="20" spans="93:93" x14ac:dyDescent="0.25">
-      <c r="CO20" s="50"/>
+      <c r="CO20" s="49"/>
     </row>
     <row r="21" spans="93:93" x14ac:dyDescent="0.25">
-      <c r="CO21" s="50"/>
+      <c r="CO21" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9550,7 +9551,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2C82EC-A31B-45FC-B153-BC9CF458FF0C}">
   <dimension ref="A1:I116"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9566,28 +9569,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>516</v>
+        <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>484</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>485</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>489</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>491</v>
-      </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>486</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -9598,13 +9601,13 @@
         <v>245</v>
       </c>
       <c r="C2" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>512</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>513</v>
-      </c>
       <c r="E2" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F2">
         <v>50613</v>
@@ -9621,16 +9624,16 @@
         <v>262</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F3">
         <v>52214</v>
@@ -9650,13 +9653,13 @@
         <v>238</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F4">
         <v>52147</v>
@@ -9673,16 +9676,16 @@
         <v>262</v>
       </c>
       <c r="B5" s="31" t="s">
+        <v>580</v>
+      </c>
+      <c r="C5" t="s">
         <v>582</v>
       </c>
-      <c r="C5" t="s">
-        <v>584</v>
-      </c>
       <c r="D5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F5">
         <v>50153</v>
@@ -9699,16 +9702,16 @@
         <v>262</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C6" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F6">
         <v>52306</v>
@@ -9725,16 +9728,16 @@
         <v>262</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D7" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F7">
         <v>52247</v>
@@ -9751,16 +9754,16 @@
         <v>262</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C8" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D8" t="s">
         <v>280</v>
       </c>
       <c r="E8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F8">
         <v>52240</v>
@@ -9777,16 +9780,16 @@
         <v>262</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C9" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D9" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F9">
         <v>52218</v>
@@ -9800,19 +9803,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
+        <v>583</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>584</v>
+      </c>
+      <c r="C10" t="s">
         <v>585</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>586</v>
-      </c>
-      <c r="C10" t="s">
-        <v>587</v>
       </c>
       <c r="D10" t="s">
         <v>281</v>
       </c>
       <c r="E10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F10">
         <v>52361</v>
@@ -9829,16 +9832,16 @@
         <v>262</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C11" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D11" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F11">
         <v>52247</v>
@@ -9855,16 +9858,16 @@
         <v>262</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C12" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D12" t="s">
         <v>280</v>
       </c>
       <c r="E12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F12">
         <v>52240</v>
@@ -9881,16 +9884,16 @@
         <v>262</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C13" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D13" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F13">
         <v>52339</v>
@@ -9907,16 +9910,16 @@
         <v>262</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C14" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D14" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F14">
         <v>52175</v>
@@ -9933,16 +9936,16 @@
         <v>262</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C15" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D15" t="s">
         <v>280</v>
       </c>
       <c r="E15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F15">
         <v>52240</v>
@@ -9959,16 +9962,16 @@
         <v>262</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C16" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D16" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F16">
         <v>52333</v>
@@ -9985,16 +9988,16 @@
         <v>262</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C17" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D17" t="s">
         <v>280</v>
       </c>
       <c r="E17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F17">
         <v>52240</v>
@@ -10014,13 +10017,13 @@
         <v>240</v>
       </c>
       <c r="C18" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="D18" s="24" t="s">
         <v>501</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="E18" s="24" t="s">
         <v>502</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>503</v>
       </c>
       <c r="F18">
         <v>52172</v>
@@ -10037,16 +10040,16 @@
         <v>179</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D19" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E19" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F19">
         <v>54665</v>
@@ -10063,16 +10066,16 @@
         <v>179</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D20" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E20" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F20">
         <v>54667</v>
@@ -10089,16 +10092,16 @@
         <v>179</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D21" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E21" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F21">
         <v>54665</v>
@@ -10115,16 +10118,16 @@
         <v>179</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D22" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E22" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F22">
         <v>55919</v>
@@ -10141,16 +10144,16 @@
         <v>179</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D23" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E23" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F23">
         <v>54639</v>
@@ -10167,16 +10170,16 @@
         <v>179</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D24" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E24" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F24">
         <v>54621</v>
@@ -10193,16 +10196,16 @@
         <v>179</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D25" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E25" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F25">
         <v>54661</v>
@@ -10219,16 +10222,16 @@
         <v>179</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D26" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E26" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F26">
         <v>54665</v>
@@ -10245,16 +10248,16 @@
         <v>179</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D27" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E27" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F27">
         <v>55971</v>
@@ -10271,16 +10274,16 @@
         <v>179</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D28" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E28" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F28">
         <v>54619</v>
@@ -10297,16 +10300,16 @@
         <v>179</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D29" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E29" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F29">
         <v>54665</v>
@@ -10323,16 +10326,16 @@
         <v>179</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D30" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E30" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F30">
         <v>54634</v>
@@ -10349,16 +10352,16 @@
         <v>179</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E31" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F31">
         <v>54639</v>
@@ -10375,16 +10378,16 @@
         <v>179</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D32" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E32" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F32">
         <v>54619</v>
@@ -10401,19 +10404,19 @@
         <v>179</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D33" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E33" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F33" s="41" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G33">
         <v>43.623287644307098</v>
@@ -10427,16 +10430,16 @@
         <v>179</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D34" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E34" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F34">
         <v>54619</v>
@@ -10453,16 +10456,16 @@
         <v>179</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D35" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E35" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F35">
         <v>54667</v>
@@ -10479,16 +10482,16 @@
         <v>179</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D36" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E36" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F36">
         <v>54619</v>
@@ -10505,16 +10508,16 @@
         <v>179</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D37" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E37" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F37">
         <v>54634</v>
@@ -10531,16 +10534,16 @@
         <v>179</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D38" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E38" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F38">
         <v>54665</v>
@@ -10557,16 +10560,16 @@
         <v>179</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D39" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E39" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F39">
         <v>54667</v>
@@ -10583,16 +10586,16 @@
         <v>179</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D40" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E40" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F40">
         <v>54653</v>
@@ -10609,16 +10612,16 @@
         <v>179</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C41" s="37" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D41" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E41" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F41">
         <v>54631</v>
@@ -10635,16 +10638,16 @@
         <v>179</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D42" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E42" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F42">
         <v>54639</v>
@@ -10664,13 +10667,13 @@
         <v>242</v>
       </c>
       <c r="C43" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="D43" s="24" t="s">
         <v>506</v>
       </c>
-      <c r="D43" s="24" t="s">
-        <v>507</v>
-      </c>
       <c r="E43" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F43">
         <v>52101</v>
@@ -10690,13 +10693,13 @@
         <v>244</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F44">
         <v>52101</v>
@@ -10716,13 +10719,13 @@
         <v>247</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F45">
         <v>52101</v>
@@ -10739,16 +10742,16 @@
         <v>196</v>
       </c>
       <c r="B46" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="C46" s="24" t="s">
         <v>497</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="D46" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="D46" s="24" t="s">
-        <v>499</v>
-      </c>
       <c r="E46" s="24" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F46">
         <v>62958</v>
@@ -10768,13 +10771,13 @@
         <v>203</v>
       </c>
       <c r="C47" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D47" t="s">
+        <v>491</v>
+      </c>
+      <c r="E47" t="s">
         <v>492</v>
-      </c>
-      <c r="E47" t="s">
-        <v>493</v>
       </c>
       <c r="F47">
         <v>62920</v>
@@ -10791,16 +10794,16 @@
         <v>196</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F48">
         <v>62975</v>
@@ -10817,16 +10820,16 @@
         <v>196</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D49" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E49" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F49">
         <v>62924</v>
@@ -10846,13 +10849,13 @@
         <v>206</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F50">
         <v>62906</v>
@@ -10869,16 +10872,16 @@
         <v>196</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F51">
         <v>63627</v>
@@ -10898,13 +10901,13 @@
         <v>207</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D52" s="24" t="s">
+        <v>491</v>
+      </c>
+      <c r="E52" s="24" t="s">
         <v>492</v>
-      </c>
-      <c r="E52" s="24" t="s">
-        <v>493</v>
       </c>
       <c r="F52">
         <v>62920</v>
@@ -10924,13 +10927,13 @@
         <v>208</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F53">
         <v>62901</v>
@@ -10947,16 +10950,16 @@
         <v>196</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D54" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E54" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F54">
         <v>62903</v>
@@ -10976,13 +10979,13 @@
         <v>210</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F55">
         <v>62958</v>
@@ -10999,16 +11002,16 @@
         <v>196</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D56" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E56" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F56">
         <v>62951</v>
@@ -11025,16 +11028,16 @@
         <v>196</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D57" t="s">
         <v>213</v>
       </c>
       <c r="E57" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F57">
         <v>62918</v>
@@ -11051,16 +11054,16 @@
         <v>196</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D58" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E58" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F58">
         <v>62901</v>
@@ -11077,16 +11080,16 @@
         <v>196</v>
       </c>
       <c r="B59" s="31" t="s">
+        <v>540</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>541</v>
+      </c>
+      <c r="D59" t="s">
         <v>542</v>
       </c>
-      <c r="C59" s="31" t="s">
-        <v>543</v>
-      </c>
-      <c r="D59" t="s">
-        <v>544</v>
-      </c>
       <c r="E59" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F59">
         <v>62912</v>
@@ -11103,16 +11106,16 @@
         <v>196</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D60" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E60" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F60">
         <v>62832</v>
@@ -11129,16 +11132,16 @@
         <v>196</v>
       </c>
       <c r="B61" s="31" t="s">
+        <v>521</v>
+      </c>
+      <c r="C61" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="D61" t="s">
         <v>523</v>
       </c>
-      <c r="C61" s="31" t="s">
-        <v>547</v>
-      </c>
-      <c r="D61" t="s">
-        <v>525</v>
-      </c>
       <c r="E61" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F61">
         <v>62972</v>
@@ -11155,16 +11158,16 @@
         <v>196</v>
       </c>
       <c r="B62" s="31" t="s">
+        <v>548</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>549</v>
+      </c>
+      <c r="D62" t="s">
         <v>550</v>
       </c>
-      <c r="C62" s="31" t="s">
-        <v>551</v>
-      </c>
-      <c r="D62" t="s">
-        <v>552</v>
-      </c>
       <c r="E62" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F62">
         <v>62262</v>
@@ -11181,16 +11184,16 @@
         <v>196</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D63" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E63" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F63">
         <v>62906</v>
@@ -11207,16 +11210,16 @@
         <v>216</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C64" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D64" t="s">
+        <v>494</v>
+      </c>
+      <c r="E64" t="s">
         <v>495</v>
-      </c>
-      <c r="E64" t="s">
-        <v>496</v>
       </c>
       <c r="F64">
         <v>46774</v>
@@ -11233,16 +11236,16 @@
         <v>216</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D65" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E65" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F65">
         <v>46805</v>
@@ -11254,7 +11257,7 @@
         <v>-85.099037515339205</v>
       </c>
       <c r="I65" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -11265,13 +11268,13 @@
         <v>225</v>
       </c>
       <c r="C66" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="D66" s="24" t="s">
         <v>504</v>
       </c>
-      <c r="D66" s="24" t="s">
-        <v>505</v>
-      </c>
       <c r="E66" s="24" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F66">
         <v>46761</v>
@@ -11288,16 +11291,16 @@
         <v>216</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D67" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E67" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F67">
         <v>46761</v>
@@ -11314,16 +11317,16 @@
         <v>216</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D68" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E68" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F68">
         <v>46748</v>
@@ -11340,16 +11343,16 @@
         <v>216</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C69" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D69" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E69" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F69">
         <v>47274</v>
@@ -11366,16 +11369,16 @@
         <v>216</v>
       </c>
       <c r="B70" s="31" t="s">
+        <v>564</v>
+      </c>
+      <c r="C70" t="s">
+        <v>565</v>
+      </c>
+      <c r="D70" t="s">
         <v>566</v>
       </c>
-      <c r="C70" t="s">
-        <v>567</v>
-      </c>
-      <c r="D70" t="s">
-        <v>568</v>
-      </c>
       <c r="E70" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F70">
         <v>46787</v>
@@ -11392,16 +11395,16 @@
         <v>216</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D71" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E71" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F71">
         <v>46802</v>
@@ -11421,13 +11424,13 @@
         <v>223</v>
       </c>
       <c r="C72" s="24" t="s">
+        <v>493</v>
+      </c>
+      <c r="D72" t="s">
         <v>494</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>495</v>
-      </c>
-      <c r="E72" t="s">
-        <v>496</v>
       </c>
       <c r="F72" s="24">
         <v>46774</v>
@@ -11447,13 +11450,13 @@
         <v>226</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D73" s="24" t="s">
+        <v>494</v>
+      </c>
+      <c r="E73" s="24" t="s">
         <v>495</v>
-      </c>
-      <c r="E73" s="24" t="s">
-        <v>496</v>
       </c>
       <c r="F73">
         <v>46774</v>
@@ -11470,16 +11473,16 @@
         <v>216</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E74" s="24" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F74">
         <v>46562</v>
@@ -11496,16 +11499,16 @@
         <v>216</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D75" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E75" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F75">
         <v>46809</v>
@@ -11522,16 +11525,16 @@
         <v>216</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C76" s="31" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D76" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E76" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F76">
         <v>46802</v>
@@ -11548,16 +11551,16 @@
         <v>285</v>
       </c>
       <c r="B77" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D77" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E77" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F77">
         <v>56401</v>
@@ -11574,16 +11577,16 @@
         <v>285</v>
       </c>
       <c r="B78" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E78" s="24" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F78">
         <v>56310</v>
@@ -11600,19 +11603,19 @@
         <v>285</v>
       </c>
       <c r="B79" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C79" s="41" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D79" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E79" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F79" s="41" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G79">
         <v>44.630062309451503</v>
@@ -11626,16 +11629,16 @@
         <v>285</v>
       </c>
       <c r="B80" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C80" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D80" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E80" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F80">
         <v>56301</v>
@@ -11652,16 +11655,16 @@
         <v>285</v>
       </c>
       <c r="B81" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C81" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D81" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E81" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F81">
         <v>56479</v>
@@ -11678,19 +11681,19 @@
         <v>285</v>
       </c>
       <c r="B82" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C82" s="41" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D82" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E82" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F82" s="41" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G82">
         <v>46.106997971379798</v>
@@ -11704,16 +11707,16 @@
         <v>285</v>
       </c>
       <c r="B83" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C83" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D83" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E83" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F83">
         <v>56401</v>
@@ -11730,16 +11733,16 @@
         <v>285</v>
       </c>
       <c r="B84" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C84" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D84" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E84" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F84">
         <v>56472</v>
@@ -11756,16 +11759,16 @@
         <v>285</v>
       </c>
       <c r="B85" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C85" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D85" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E85" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F85">
         <v>56469</v>
@@ -11782,16 +11785,16 @@
         <v>285</v>
       </c>
       <c r="B86" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C86" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D86" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E86" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F86">
         <v>55320</v>
@@ -11808,16 +11811,16 @@
         <v>285</v>
       </c>
       <c r="B87" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C87" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D87" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E87" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F87">
         <v>56560</v>
@@ -11834,19 +11837,19 @@
         <v>285</v>
       </c>
       <c r="B88" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C88" s="41" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D88" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E88" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F88" s="41" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G88">
         <v>46.133798580537203</v>
@@ -11860,16 +11863,16 @@
         <v>285</v>
       </c>
       <c r="B89" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C89" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D89" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E89" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F89">
         <v>56374</v>
@@ -11886,16 +11889,16 @@
         <v>285</v>
       </c>
       <c r="B90" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C90" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D90" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E90" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F90">
         <v>56438</v>
@@ -11912,16 +11915,16 @@
         <v>285</v>
       </c>
       <c r="B91" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C91" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D91" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E91" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F91">
         <v>56473</v>
@@ -11938,16 +11941,16 @@
         <v>285</v>
       </c>
       <c r="B92" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C92" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D92" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E92" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F92">
         <v>55371</v>
@@ -11964,16 +11967,16 @@
         <v>285</v>
       </c>
       <c r="B93" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C93" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D93" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E93" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F93">
         <v>56479</v>
@@ -11990,16 +11993,16 @@
         <v>285</v>
       </c>
       <c r="B94" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C94" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D94" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E94" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F94">
         <v>56431</v>
@@ -12016,16 +12019,16 @@
         <v>285</v>
       </c>
       <c r="B95" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C95" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D95" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E95" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F95">
         <v>56472</v>
@@ -12042,16 +12045,16 @@
         <v>285</v>
       </c>
       <c r="B96" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C96" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D96" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E96" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F96">
         <v>55051</v>
@@ -12068,16 +12071,16 @@
         <v>285</v>
       </c>
       <c r="B97" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C97" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D97" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E97" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F97">
         <v>56431</v>
@@ -12094,16 +12097,16 @@
         <v>285</v>
       </c>
       <c r="B98" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C98" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D98" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E98" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F98">
         <v>56401</v>
@@ -12117,19 +12120,19 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B99" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C99" t="s">
+        <v>740</v>
+      </c>
+      <c r="D99" t="s">
+        <v>741</v>
+      </c>
+      <c r="E99" t="s">
         <v>742</v>
-      </c>
-      <c r="D99" t="s">
-        <v>743</v>
-      </c>
-      <c r="E99" t="s">
-        <v>744</v>
       </c>
       <c r="F99">
         <v>49093</v>
@@ -12143,19 +12146,19 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B100" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C100" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D100" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E100" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F100">
         <v>49424</v>
@@ -12169,19 +12172,19 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B101" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C101" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D101" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E101" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F101">
         <v>49071</v>
@@ -12195,19 +12198,19 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B102" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C102" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D102" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E102" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F102">
         <v>49013</v>
@@ -12221,19 +12224,19 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B103" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C103" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D103" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E103" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F103">
         <v>49031</v>
@@ -12247,19 +12250,19 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B104" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C104" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D104" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E104" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F104">
         <v>49073</v>
@@ -12273,19 +12276,19 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B105" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C105" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D105" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E105" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F105">
         <v>49328</v>
@@ -12299,19 +12302,19 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B106" t="s">
+        <v>780</v>
+      </c>
+      <c r="C106" t="s">
+        <v>781</v>
+      </c>
+      <c r="D106" t="s">
         <v>782</v>
       </c>
-      <c r="C106" t="s">
-        <v>783</v>
-      </c>
-      <c r="D106" t="s">
-        <v>784</v>
-      </c>
       <c r="E106" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F106">
         <v>49064</v>
@@ -12325,19 +12328,19 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B107" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C107" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D107" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E107" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F107">
         <v>49033</v>
@@ -12351,19 +12354,19 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B108" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C108" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D108" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E108" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F108">
         <v>49071</v>
@@ -12377,19 +12380,19 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B109" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C109" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D109" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E109" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F109">
         <v>49001</v>
@@ -12403,19 +12406,19 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B110" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C110" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D110" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E110" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F110">
         <v>48813</v>
@@ -12429,19 +12432,19 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B111" t="s">
+        <v>772</v>
+      </c>
+      <c r="C111" s="36" t="s">
+        <v>773</v>
+      </c>
+      <c r="D111" t="s">
         <v>774</v>
       </c>
-      <c r="C111" s="36" t="s">
-        <v>775</v>
-      </c>
-      <c r="D111" t="s">
-        <v>776</v>
-      </c>
       <c r="E111" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F111">
         <v>49014</v>
@@ -12455,19 +12458,19 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B112" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C112" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D112" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E112" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F112">
         <v>49083</v>
@@ -12481,19 +12484,19 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B113" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C113" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D113" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E113" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F113">
         <v>49013</v>
@@ -12507,19 +12510,19 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B114" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C114" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D114" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E114" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F114">
         <v>49013</v>
@@ -12533,19 +12536,19 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B115" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C115" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D115" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E115" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F115">
         <v>49665</v>
@@ -12559,19 +12562,19 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B116" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C116" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D116" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E116" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F116">
         <v>49087</v>
@@ -12619,13 +12622,13 @@
         <v>262</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -12633,13 +12636,13 @@
         <v>262</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D2" t="s">
         <v>280</v>
       </c>
       <c r="E2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F2">
         <v>52240</v>
@@ -12650,21 +12653,21 @@
         <v>285</v>
       </c>
       <c r="B3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B5" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F5">
         <v>49344</v>
@@ -12672,10 +12675,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F6">
         <v>49001</v>
@@ -12686,16 +12689,16 @@
         <v>216</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D8" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I8" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -12703,13 +12706,13 @@
         <v>216</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D9" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -12717,14 +12720,14 @@
         <v>216</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -12732,14 +12735,14 @@
         <v>179</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C11" s="37"/>
       <c r="D11" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E11" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -12747,14 +12750,14 @@
         <v>179</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E12" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F12">
         <v>54619</v>
@@ -12765,14 +12768,14 @@
         <v>179</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E13" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -12780,17 +12783,17 @@
         <v>179</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C14" s="37"/>
       <c r="D14" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E14" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="I14" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -12798,14 +12801,14 @@
         <v>179</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E15" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -12813,14 +12816,14 @@
         <v>179</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C16" s="37"/>
       <c r="D16" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E16" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -12832,10 +12835,10 @@
       </c>
       <c r="C17" s="37"/>
       <c r="D17" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E17" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -12843,14 +12846,14 @@
         <v>179</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C18" s="37"/>
       <c r="D18" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E18" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -12858,14 +12861,14 @@
         <v>179</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C19" s="37"/>
       <c r="D19" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E19" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -12873,14 +12876,14 @@
         <v>179</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C20" s="37"/>
       <c r="D20" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E20" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -12900,25 +12903,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>484</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>485</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>489</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>491</v>
-      </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>486</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -12948,598 +12951,598 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F1" s="34"/>
       <c r="G1" s="34" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F2" s="34"/>
       <c r="G2" s="34" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F3" s="34"/>
       <c r="G3" s="34" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F4" s="34"/>
       <c r="G4" s="34" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F5" s="33"/>
       <c r="G5" s="34" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F6" s="34"/>
       <c r="G6" s="34" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F7" s="33"/>
       <c r="G7" s="34" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="34" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="34" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="34" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="34" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B13" s="32" t="s">
+        <v>642</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>662</v>
+      </c>
+      <c r="G13" s="34" t="s">
         <v>644</v>
       </c>
-      <c r="C13" s="32" t="s">
-        <v>664</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>646</v>
-      </c>
       <c r="H13" s="34" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="34" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="34" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="34" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="34" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="34" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H19" s="34" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="H20" s="34" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B21" s="32" t="s">
+        <v>627</v>
+      </c>
+      <c r="C21" s="32" t="s">
         <v>629</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>631</v>
       </c>
       <c r="F21" s="34"/>
       <c r="G21" s="34" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H21" s="34" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="34" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H22" s="34" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="34" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="H23" s="34" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="H24" s="34" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="G25" s="33"/>
       <c r="H25" s="34" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G26" s="33"/>
       <c r="H26" s="34" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
+        <v>629</v>
+      </c>
+      <c r="B27" s="32" t="s">
         <v>631</v>
       </c>
-      <c r="B27" s="32" t="s">
-        <v>633</v>
-      </c>
       <c r="C27" s="32" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G27" s="33"/>
       <c r="H27" s="34" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G28" s="33"/>
       <c r="H28" s="34" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G29" s="33"/>
       <c r="H29" s="34" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="F30" s="34" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G30" s="33"/>
       <c r="H30" s="34" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="F31" s="34" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="H31" s="34" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="F32" s="34" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H32" s="34" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="33" spans="6:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="F33" s="34" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="34" spans="6:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="F34" s="34" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="35" spans="6:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="F35" s="34" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="36" spans="6:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="F36" s="34" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="37" spans="6:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="F37" s="34" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H37" s="34" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="38" spans="6:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="F38" s="34" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H38" s="34" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="39" spans="6:8" ht="21.75" x14ac:dyDescent="0.25">
       <c r="F39" s="34" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="H39" s="34" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -16909,16 +16912,16 @@
         <v>179</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F1">
         <v>54665</v>
@@ -16935,14 +16938,14 @@
         <v>179</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -16950,14 +16953,14 @@
         <v>179</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C3" s="37"/>
       <c r="D3" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F3">
         <v>54619</v>
@@ -16968,16 +16971,16 @@
         <v>179</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F4">
         <v>54667</v>
@@ -16994,16 +16997,16 @@
         <v>179</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F5">
         <v>54665</v>
@@ -17020,16 +17023,16 @@
         <v>179</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D6" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E6" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F6">
         <v>55919</v>
@@ -17046,16 +17049,16 @@
         <v>179</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D7" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F7">
         <v>54639</v>
@@ -17076,10 +17079,10 @@
       </c>
       <c r="C8" s="37"/>
       <c r="D8" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E8" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -17087,16 +17090,16 @@
         <v>179</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D9" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E9" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F9">
         <v>54621</v>
@@ -17113,16 +17116,16 @@
         <v>179</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D10" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E10" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F10">
         <v>54661</v>
@@ -17139,16 +17142,16 @@
         <v>179</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D11" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E11" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F11">
         <v>54665</v>
@@ -17165,16 +17168,16 @@
         <v>179</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D12" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E12" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F12">
         <v>55971</v>
@@ -17191,16 +17194,16 @@
         <v>179</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D13" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E13" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F13">
         <v>54619</v>
@@ -17217,16 +17220,16 @@
         <v>179</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D14" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E14" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F14">
         <v>54665</v>
@@ -17243,16 +17246,16 @@
         <v>179</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D15" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E15" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F15">
         <v>54634</v>
@@ -17269,14 +17272,14 @@
         <v>179</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C16" s="37"/>
       <c r="D16" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E16" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G16">
         <v>43.550955220487801</v>
@@ -17290,16 +17293,16 @@
         <v>179</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D17" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E17" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F17">
         <v>54639</v>
@@ -17316,14 +17319,14 @@
         <v>179</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C18" s="37"/>
       <c r="D18" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E18" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -17331,17 +17334,17 @@
         <v>179</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C19" s="37"/>
       <c r="D19" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E19" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="I19" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -17349,14 +17352,14 @@
         <v>179</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C20" s="37"/>
       <c r="D20" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E20" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -17364,14 +17367,14 @@
         <v>179</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C21" s="37"/>
       <c r="D21" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E21" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -17379,16 +17382,16 @@
         <v>179</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D22" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E22" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F22">
         <v>54619</v>
@@ -17405,19 +17408,19 @@
         <v>179</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D23" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E23" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -17425,16 +17428,16 @@
         <v>179</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D24" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E24" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F24">
         <v>54619</v>
@@ -17445,16 +17448,16 @@
         <v>179</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D25" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E25" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F25">
         <v>54667</v>
@@ -17471,16 +17474,16 @@
         <v>179</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D26" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E26" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F26">
         <v>54619</v>
@@ -17491,16 +17494,16 @@
         <v>179</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D27" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E27" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F27">
         <v>54634</v>
@@ -17517,16 +17520,16 @@
         <v>179</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D28" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E28" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F28">
         <v>54665</v>
@@ -17543,16 +17546,16 @@
         <v>179</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D29" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E29" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F29">
         <v>54667</v>
@@ -17569,16 +17572,16 @@
         <v>179</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D30" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E30" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F30">
         <v>54653</v>
@@ -17595,16 +17598,16 @@
         <v>179</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D31" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E31" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F31">
         <v>54631</v>
@@ -17615,16 +17618,16 @@
         <v>179</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D32" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E32" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F32">
         <v>54639</v>
@@ -17641,14 +17644,14 @@
         <v>179</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C33" s="37"/>
       <c r="D33" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E33" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -17656,14 +17659,14 @@
         <v>179</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C34" s="37"/>
       <c r="D34" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E34" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -17840,77 +17843,77 @@
     <col min="19" max="19" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="48" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:25" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>983</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>984</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>774</v>
+      </c>
+      <c r="D1" s="47" t="s">
         <v>985</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="E1" s="47" t="s">
         <v>986</v>
       </c>
-      <c r="C1" s="48" t="s">
-        <v>776</v>
-      </c>
-      <c r="D1" s="48" t="s">
+      <c r="F1" s="47" t="s">
+        <v>748</v>
+      </c>
+      <c r="G1" s="47" t="s">
         <v>987</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="H1" s="47" t="s">
         <v>988</v>
       </c>
-      <c r="F1" s="48" t="s">
-        <v>750</v>
-      </c>
-      <c r="G1" s="48" t="s">
+      <c r="I1" s="47" t="s">
         <v>989</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="J1" s="47" t="s">
         <v>990</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="K1" s="47" t="s">
+        <v>746</v>
+      </c>
+      <c r="L1" s="47" t="s">
         <v>991</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="M1" s="47" t="s">
         <v>992</v>
       </c>
-      <c r="K1" s="48" t="s">
-        <v>748</v>
-      </c>
-      <c r="L1" s="48" t="s">
+      <c r="N1" s="47" t="s">
+        <v>765</v>
+      </c>
+      <c r="O1" s="47" t="s">
         <v>993</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="P1" s="47" t="s">
         <v>994</v>
       </c>
-      <c r="N1" s="48" t="s">
-        <v>767</v>
-      </c>
-      <c r="O1" s="48" t="s">
+      <c r="Q1" s="47" t="s">
+        <v>686</v>
+      </c>
+      <c r="R1" s="47" t="s">
+        <v>741</v>
+      </c>
+      <c r="S1" s="47" t="s">
         <v>995</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="W1" s="47" t="s">
         <v>996</v>
       </c>
-      <c r="Q1" s="48" t="s">
-        <v>688</v>
-      </c>
-      <c r="R1" s="48" t="s">
-        <v>743</v>
-      </c>
-      <c r="S1" s="48" t="s">
-        <v>997</v>
-      </c>
-      <c r="W1" s="48" t="s">
-        <v>998</v>
-      </c>
-      <c r="X1" s="48" t="s">
-        <v>1052</v>
-      </c>
-      <c r="Y1" s="48" t="s">
-        <v>1053</v>
+      <c r="X1" s="47" t="s">
+        <v>1050</v>
+      </c>
+      <c r="Y1" s="47" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C2">
         <v>55676.92</v>
@@ -17964,7 +17967,7 @@
         <v>383181.7</v>
       </c>
       <c r="W2" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="X2">
         <v>104386.75000000001</v>
@@ -17975,10 +17978,10 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="I3">
         <v>94503.55</v>
@@ -17986,12 +17989,12 @@
       <c r="S3">
         <v>94503.55</v>
       </c>
-      <c r="T3" s="49">
+      <c r="T3" s="48">
         <f>S3/$S$2</f>
         <v>0.24662855767903322</v>
       </c>
       <c r="W3" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="X3">
         <v>99823.97</v>
@@ -18002,10 +18005,10 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B4" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="I4">
         <v>65665.37</v>
@@ -18013,12 +18016,12 @@
       <c r="S4">
         <v>65665.37</v>
       </c>
-      <c r="T4" s="49">
+      <c r="T4" s="48">
         <f t="shared" ref="T4:T55" si="0">S4/$S$2</f>
         <v>0.17136875273532112</v>
       </c>
       <c r="W4" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="X4">
         <v>97913.289999999979</v>
@@ -18029,10 +18032,10 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C5">
         <v>51980.15</v>
@@ -18040,12 +18043,12 @@
       <c r="S5">
         <v>51980.15</v>
       </c>
-      <c r="T5" s="49">
+      <c r="T5" s="48">
         <f t="shared" si="0"/>
         <v>0.13565405132865166</v>
       </c>
       <c r="W5" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="X5">
         <v>30813.030000000002</v>
@@ -18056,10 +18059,10 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B6" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="I6">
         <v>29896.86</v>
@@ -18067,12 +18070,12 @@
       <c r="S6">
         <v>29896.86</v>
       </c>
-      <c r="T6" s="49">
+      <c r="T6" s="48">
         <f t="shared" si="0"/>
         <v>7.8022671750764716E-2</v>
       </c>
       <c r="W6" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="X6">
         <v>29634.82</v>
@@ -18083,10 +18086,10 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B7" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="I7">
         <v>22403.94</v>
@@ -18094,12 +18097,12 @@
       <c r="S7">
         <v>22403.94</v>
       </c>
-      <c r="T7" s="49">
+      <c r="T7" s="48">
         <f t="shared" si="0"/>
         <v>5.8468188851398692E-2</v>
       </c>
       <c r="W7" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="X7">
         <v>9760.57</v>
@@ -18110,10 +18113,10 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B8" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="P8">
         <v>18569.490000000002</v>
@@ -18121,12 +18124,12 @@
       <c r="S8">
         <v>18569.490000000002</v>
       </c>
-      <c r="T8" s="49">
+      <c r="T8" s="48">
         <f t="shared" si="0"/>
         <v>4.8461317437654257E-2</v>
       </c>
       <c r="W8" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="X8">
         <v>5784.46</v>
@@ -18137,10 +18140,10 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B9" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="I9">
         <v>10224.18</v>
@@ -18148,12 +18151,12 @@
       <c r="S9">
         <v>10224.18</v>
       </c>
-      <c r="T9" s="49">
+      <c r="T9" s="48">
         <f t="shared" si="0"/>
         <v>2.6682328514122673E-2</v>
       </c>
       <c r="W9" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="X9">
         <v>5390.0099999999993</v>
@@ -18164,10 +18167,10 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B10" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="I10">
         <v>8942.5499999999993</v>
@@ -18175,17 +18178,17 @@
       <c r="S10">
         <v>8942.5499999999993</v>
       </c>
-      <c r="T10" s="49">
+      <c r="T10" s="48">
         <f t="shared" si="0"/>
         <v>2.3337622856206334E-2</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B11" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="I11">
         <v>8931.82</v>
@@ -18193,17 +18196,17 @@
       <c r="S11">
         <v>8931.82</v>
       </c>
-      <c r="T11" s="49">
+      <c r="T11" s="48">
         <f t="shared" si="0"/>
         <v>2.3309620475090536E-2</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B12" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="I12">
         <v>8389.92</v>
@@ -18211,17 +18214,17 @@
       <c r="S12">
         <v>8389.92</v>
       </c>
-      <c r="T12" s="49">
+      <c r="T12" s="48">
         <f t="shared" si="0"/>
         <v>2.1895408888263714E-2</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B13" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="I13">
         <v>5635.86</v>
@@ -18229,17 +18232,17 @@
       <c r="S13">
         <v>5635.86</v>
       </c>
-      <c r="T13" s="49">
+      <c r="T13" s="48">
         <f t="shared" si="0"/>
         <v>1.4708061475795946E-2</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B14" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="L14">
         <v>5195.0600000000004</v>
@@ -18247,17 +18250,17 @@
       <c r="S14">
         <v>5195.0600000000004</v>
       </c>
-      <c r="T14" s="49">
+      <c r="T14" s="48">
         <f t="shared" si="0"/>
         <v>1.355769338671445E-2</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B15" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="I15">
         <v>4336.8500000000004</v>
@@ -18265,17 +18268,17 @@
       <c r="S15">
         <v>4336.8500000000004</v>
       </c>
-      <c r="T15" s="49">
+      <c r="T15" s="48">
         <f t="shared" si="0"/>
         <v>1.1317998745764739E-2</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B16" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="I16">
         <v>4286.95</v>
@@ -18283,17 +18286,17 @@
       <c r="S16">
         <v>4286.95</v>
       </c>
-      <c r="T16" s="49">
+      <c r="T16" s="48">
         <f t="shared" si="0"/>
         <v>1.1187773320072435E-2</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B17" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C17">
         <v>3696.77</v>
@@ -18301,17 +18304,17 @@
       <c r="S17">
         <v>3696.77</v>
       </c>
-      <c r="T17" s="49">
+      <c r="T17" s="48">
         <f t="shared" si="0"/>
         <v>9.6475640668643621E-3</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B18" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="I18">
         <v>3685.73</v>
@@ -18319,17 +18322,17 @@
       <c r="S18">
         <v>3685.73</v>
       </c>
-      <c r="T18" s="49">
+      <c r="T18" s="48">
         <f t="shared" si="0"/>
         <v>9.6187526700779284E-3</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B19" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="G19">
         <v>3340.26</v>
@@ -18337,17 +18340,17 @@
       <c r="S19">
         <v>3340.26</v>
       </c>
-      <c r="T19" s="49">
+      <c r="T19" s="48">
         <f t="shared" si="0"/>
         <v>8.7171699483560936E-3</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B20" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="M20">
         <v>3087.72</v>
@@ -18355,17 +18358,17 @@
       <c r="S20">
         <v>3087.72</v>
       </c>
-      <c r="T20" s="49">
+      <c r="T20" s="48">
         <f t="shared" si="0"/>
         <v>8.0581092468664343E-3</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B21" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="K21">
         <v>3061.74</v>
@@ -18373,17 +18376,17 @@
       <c r="S21">
         <v>3061.74</v>
       </c>
-      <c r="T21" s="49">
+      <c r="T21" s="48">
         <f t="shared" si="0"/>
         <v>7.9903085142114041E-3</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B22" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="O22">
         <v>2772.74</v>
@@ -18391,17 +18394,17 @@
       <c r="S22">
         <v>2772.74</v>
       </c>
-      <c r="T22" s="49">
+      <c r="T22" s="48">
         <f t="shared" si="0"/>
         <v>7.2360971309433607E-3</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B23" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="I23">
         <v>2743.79</v>
@@ -18409,17 +18412,17 @@
       <c r="S23">
         <v>2743.79</v>
       </c>
-      <c r="T23" s="49">
+      <c r="T23" s="48">
         <f t="shared" si="0"/>
         <v>7.1605455062180683E-3</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B24" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D24">
         <v>2566.15</v>
@@ -18427,17 +18430,17 @@
       <c r="S24">
         <v>2566.15</v>
       </c>
-      <c r="T24" s="49">
+      <c r="T24" s="48">
         <f t="shared" si="0"/>
         <v>6.6969534296653522E-3</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B25" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="I25">
         <v>2455.2399999999998</v>
@@ -18445,17 +18448,17 @@
       <c r="S25">
         <v>2455.2399999999998</v>
       </c>
-      <c r="T25" s="49">
+      <c r="T25" s="48">
         <f t="shared" si="0"/>
         <v>6.4075085005364284E-3</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B26" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="M26">
         <v>2193.96</v>
@@ -18463,17 +18466,17 @@
       <c r="S26">
         <v>2193.96</v>
       </c>
-      <c r="T26" s="49">
+      <c r="T26" s="48">
         <f t="shared" si="0"/>
         <v>5.7256387765908445E-3</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B27" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="N27">
         <v>2158.9499999999998</v>
@@ -18481,17 +18484,17 @@
       <c r="S27">
         <v>2158.9499999999998</v>
       </c>
-      <c r="T27" s="49">
+      <c r="T27" s="48">
         <f t="shared" si="0"/>
         <v>5.6342722003686497E-3</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B28" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="I28">
         <v>1887</v>
@@ -18499,17 +18502,17 @@
       <c r="S28">
         <v>1887</v>
       </c>
-      <c r="T28" s="49">
+      <c r="T28" s="48">
         <f t="shared" si="0"/>
         <v>4.9245566789854521E-3</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B29" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="M29">
         <v>1298</v>
@@ -18517,17 +18520,17 @@
       <c r="S29">
         <v>1298</v>
       </c>
-      <c r="T29" s="49">
+      <c r="T29" s="48">
         <f t="shared" si="0"/>
         <v>3.3874269047817263E-3</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B30" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="R30">
         <v>1283.7</v>
@@ -18535,17 +18538,17 @@
       <c r="S30">
         <v>1283.7</v>
       </c>
-      <c r="T30" s="49">
+      <c r="T30" s="48">
         <f t="shared" si="0"/>
         <v>3.3501077948137922E-3</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B31" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F31">
         <v>1082.24</v>
@@ -18553,17 +18556,17 @@
       <c r="S31">
         <v>1082.24</v>
       </c>
-      <c r="T31" s="49">
+      <c r="T31" s="48">
         <f t="shared" si="0"/>
         <v>2.8243519980207825E-3</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B32" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="I32">
         <v>958.09</v>
@@ -18571,17 +18574,17 @@
       <c r="S32">
         <v>958.09</v>
       </c>
-      <c r="T32" s="49">
+      <c r="T32" s="48">
         <f t="shared" si="0"/>
         <v>2.5003542705718984E-3</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B33" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="I33">
         <v>836</v>
@@ -18589,17 +18592,17 @@
       <c r="S33">
         <v>836</v>
       </c>
-      <c r="T33" s="49">
+      <c r="T33" s="48">
         <f t="shared" si="0"/>
         <v>2.1817325827407728E-3</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B34" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="Q34">
         <v>681.52</v>
@@ -18607,17 +18610,17 @@
       <c r="S34">
         <v>681.52</v>
       </c>
-      <c r="T34" s="49">
+      <c r="T34" s="48">
         <f t="shared" si="0"/>
         <v>1.7785818059682912E-3</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B35" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="I35">
         <v>595.67999999999995</v>
@@ -18625,17 +18628,17 @@
       <c r="S35">
         <v>595.67999999999995</v>
       </c>
-      <c r="T35" s="49">
+      <c r="T35" s="48">
         <f t="shared" si="0"/>
         <v>1.554562757041894E-3</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B36" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="I36">
         <v>532</v>
@@ -18643,17 +18646,17 @@
       <c r="S36">
         <v>532</v>
       </c>
-      <c r="T36" s="49">
+      <c r="T36" s="48">
         <f t="shared" si="0"/>
         <v>1.3883752799259464E-3</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B37" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="I37">
         <v>502.6</v>
@@ -18661,17 +18664,17 @@
       <c r="S37">
         <v>502.6</v>
       </c>
-      <c r="T37" s="49">
+      <c r="T37" s="48">
         <f t="shared" si="0"/>
         <v>1.3116492776142493E-3</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B38" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="I38">
         <v>455.57</v>
@@ -18679,17 +18682,17 @@
       <c r="S38">
         <v>455.57</v>
       </c>
-      <c r="T38" s="49">
+      <c r="T38" s="48">
         <f t="shared" si="0"/>
         <v>1.1889137711952318E-3</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B39" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="I39">
         <v>333</v>
@@ -18697,17 +18700,17 @@
       <c r="S39">
         <v>333</v>
       </c>
-      <c r="T39" s="49">
+      <c r="T39" s="48">
         <f t="shared" si="0"/>
         <v>8.6903941393860925E-4</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B40" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="I40">
         <v>331.97</v>
@@ -18715,17 +18718,17 @@
       <c r="S40">
         <v>331.97</v>
       </c>
-      <c r="T40" s="49">
+      <c r="T40" s="48">
         <f t="shared" si="0"/>
         <v>8.6635139412973017E-4</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B41" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="I41">
         <v>325.2</v>
@@ -18733,17 +18736,17 @@
       <c r="S41">
         <v>325.2</v>
       </c>
-      <c r="T41" s="49">
+      <c r="T41" s="48">
         <f t="shared" si="0"/>
         <v>8.4868353577428142E-4</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B42" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="I42">
         <v>325.2</v>
@@ -18751,17 +18754,17 @@
       <c r="S42">
         <v>325.2</v>
       </c>
-      <c r="T42" s="49">
+      <c r="T42" s="48">
         <f t="shared" si="0"/>
         <v>8.4868353577428142E-4</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B43" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="J43">
         <v>240.23</v>
@@ -18769,17 +18772,17 @@
       <c r="S43">
         <v>240.23</v>
       </c>
-      <c r="T43" s="49">
+      <c r="T43" s="48">
         <f t="shared" si="0"/>
         <v>6.269349501815979E-4</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B44" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="H44">
         <v>181</v>
@@ -18787,17 +18790,17 @@
       <c r="S44">
         <v>181</v>
       </c>
-      <c r="T44" s="49">
+      <c r="T44" s="48">
         <f t="shared" si="0"/>
         <v>4.7236076253119602E-4</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B45" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="I45">
         <v>153.04</v>
@@ -18805,17 +18808,17 @@
       <c r="S45">
         <v>153.04</v>
       </c>
-      <c r="T45" s="49">
+      <c r="T45" s="48">
         <f t="shared" si="0"/>
         <v>3.9939276849599025E-4</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B46" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="I46">
         <v>138.99</v>
@@ -18823,17 +18826,17 @@
       <c r="S46">
         <v>138.99</v>
       </c>
-      <c r="T46" s="49">
+      <c r="T46" s="48">
         <f t="shared" si="0"/>
         <v>3.6272609052050245E-4</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B47" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="M47">
         <v>125.36</v>
@@ -18841,17 +18844,17 @@
       <c r="S47">
         <v>125.36</v>
       </c>
-      <c r="T47" s="49">
+      <c r="T47" s="48">
         <f t="shared" si="0"/>
         <v>3.2715549829232448E-4</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B48" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="I48">
         <v>105.8</v>
@@ -18859,14 +18862,14 @@
       <c r="S48">
         <v>105.8</v>
       </c>
-      <c r="T48" s="49">
+      <c r="T48" s="48">
         <f t="shared" si="0"/>
         <v>2.761092192033179E-4</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="I49">
         <v>105.8</v>
@@ -18874,17 +18877,17 @@
       <c r="S49">
         <v>105.8</v>
       </c>
-      <c r="T49" s="49">
+      <c r="T49" s="48">
         <f t="shared" si="0"/>
         <v>2.761092192033179E-4</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B50" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="M50">
         <v>88.6</v>
@@ -18892,17 +18895,17 @@
       <c r="S50">
         <v>88.6</v>
       </c>
-      <c r="T50" s="49">
+      <c r="T50" s="48">
         <f t="shared" si="0"/>
         <v>2.3122189812300534E-4</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B51" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E51">
         <v>82.66</v>
@@ -18910,17 +18913,17 @@
       <c r="S51">
         <v>82.66</v>
       </c>
-      <c r="T51" s="49">
+      <c r="T51" s="48">
         <f t="shared" si="0"/>
         <v>2.1572011398247878E-4</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B52" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="I52">
         <v>80.03</v>
@@ -18928,17 +18931,17 @@
       <c r="S52">
         <v>80.03</v>
       </c>
-      <c r="T52" s="49">
+      <c r="T52" s="48">
         <f t="shared" si="0"/>
         <v>2.0885652942194264E-4</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B53" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="I53">
         <v>60</v>
@@ -18946,17 +18949,17 @@
       <c r="S53">
         <v>60</v>
       </c>
-      <c r="T53" s="49">
+      <c r="T53" s="48">
         <f t="shared" si="0"/>
         <v>1.5658367818713681E-4</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B54" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="I54">
         <v>51.12</v>
@@ -18964,17 +18967,17 @@
       <c r="S54">
         <v>51.12</v>
       </c>
-      <c r="T54" s="49">
+      <c r="T54" s="48">
         <f t="shared" si="0"/>
         <v>1.3340929381544056E-4</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B55" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="I55">
         <v>46.7</v>
@@ -18982,7 +18985,7 @@
       <c r="S55">
         <v>46.7</v>
       </c>
-      <c r="T55" s="49">
+      <c r="T55" s="48">
         <f t="shared" si="0"/>
         <v>1.2187429618898815E-4</v>
       </c>
